--- a/projects/template.xlsx
+++ b/projects/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -16,21 +16,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!$A$2:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$3</definedName>
-    <definedName name="AnalysisType">Lookups!$A$21:$A$30</definedName>
-    <definedName name="instance_defs">Lookups!$A$2:$E$12</definedName>
-    <definedName name="instance_types">Lookups!$A$2:$A$12</definedName>
-    <definedName name="nsga">Lookups!$O$22:$P$29</definedName>
-    <definedName name="nsga_nrel">Lookups!$O$22:$P$29</definedName>
-    <definedName name="optim">Lookups!$I$21:$J$26</definedName>
-    <definedName name="rgenoud">Lookups!$L$21:$M$32</definedName>
-    <definedName name="samplemethod">Lookups!$A$16:$A$18</definedName>
-    <definedName name="SensitivityType">Lookups!$A$16:$A$17</definedName>
-    <definedName name="sentivity">Lookups!$A$16:$A$17</definedName>
-    <definedName name="simulate_data_point">Lookups!$G$16</definedName>
-    <definedName name="TrueFalse">Lookups!$C$16:$C$17</definedName>
-    <definedName name="Workflow">Lookups!$E$16:$E$17</definedName>
+    <definedName name="AnalysisType">Lookups!$A$19:$A$28</definedName>
+    <definedName name="instance_defs">Lookups!$A$2:$E$10</definedName>
+    <definedName name="instance_types">Lookups!$A$2:$A$10</definedName>
+    <definedName name="nsga">Lookups!$O$20:$P$27</definedName>
+    <definedName name="nsga_nrel">Lookups!$O$20:$P$27</definedName>
+    <definedName name="optim">Lookups!$I$19:$J$24</definedName>
+    <definedName name="rgenoud">Lookups!$L$19:$M$30</definedName>
+    <definedName name="samplemethod">Lookups!$A$14:$A$16</definedName>
+    <definedName name="SensitivityType">Lookups!$A$14:$A$15</definedName>
+    <definedName name="sentivity">Lookups!$A$14:$A$15</definedName>
+    <definedName name="simulate_data_point">Lookups!$G$14</definedName>
+    <definedName name="TrueFalse">Lookups!$C$14:$C$15</definedName>
+    <definedName name="Workflow">Lookups!$E$14:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="750">
   <si>
     <t>type</t>
   </si>
@@ -1590,9 +1590,6 @@
     <t>peak_use_flow_rate</t>
   </si>
   <si>
-    <t>new_user</t>
-  </si>
-  <si>
     <t>SetChillerCOP</t>
   </si>
   <si>
@@ -1863,9 +1860,6 @@
     <t>$1.68/hour</t>
   </si>
   <si>
-    <t>Default Cluster</t>
-  </si>
-  <si>
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
@@ -2004,9 +1998,6 @@
     <t>Recommended for Server</t>
   </si>
   <si>
-    <t>Recommended for Server if large analysis because of storage</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
@@ -2199,21 +2190,6 @@
     <t>Recommended for worker</t>
   </si>
   <si>
-    <t>i2.xlarge</t>
-  </si>
-  <si>
-    <t>$0.85/hour</t>
-  </si>
-  <si>
-    <t>800 GB</t>
-  </si>
-  <si>
-    <t>i2.2xlarge</t>
-  </si>
-  <si>
-    <t>$1.71/hour</t>
-  </si>
-  <si>
     <t>AWS Tag</t>
   </si>
   <si>
@@ -2295,9 +2271,6 @@
     <t>0 false / 1 true</t>
   </si>
   <si>
-    <t>1.10.0-rc1</t>
-  </si>
-  <si>
     <t>toursize</t>
   </si>
   <si>
@@ -2308,6 +2281,15 @@
   </si>
   <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>1.11.0-rc3</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -5904,21 +5886,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="12"/>
       <c r="B1" s="20"/>
       <c r="C1" s="12"/>
@@ -5928,7 +5910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>435</v>
       </c>
@@ -5938,56 +5920,56 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>738</v>
+      <c r="B3" s="18" t="s">
+        <v>730</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>516</v>
+        <v>747</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="42">
       <c r="A5" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>607</v>
+        <v>749</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
@@ -6002,15 +5984,15 @@
         <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -6028,7 +6010,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -6037,31 +6019,31 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
         <v>$1.96/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A10" s="23" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -6071,29 +6053,29 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6101,10 +6083,10 @@
         <v>452</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>464</v>
       </c>
@@ -6115,7 +6097,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>465</v>
       </c>
@@ -6123,10 +6105,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6137,23 +6119,23 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -6162,7 +6144,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
@@ -6170,56 +6152,56 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="23" customFormat="1">
       <c r="B23" s="18"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A24" s="6" t="s">
         <v>451</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v>Sample Method</v>
       </c>
       <c r="B25" s="18" t="str">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$AF$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$19:$AF$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v>individual_variables</v>
       </c>
       <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v>individual_variables / all_variables</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="28">
       <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v>Number of Samples</v>
       </c>
       <c r="B26" s="18">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$AF$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$19:$AF$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v>40</v>
       </c>
       <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D26" s="27">
@@ -6227,197 +6209,197 @@
       </c>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
       </c>
       <c r="B27" s="18" t="str">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$AF$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$19:$AF$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v/>
       </c>
       <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v/>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="23" customFormat="1">
       <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
       </c>
       <c r="B28" s="18" t="str">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$AF$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$19:$AF$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v/>
       </c>
       <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v/>
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="23" customFormat="1">
       <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
       </c>
       <c r="B29" s="18" t="str">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$AF$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$19:$AF$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v/>
       </c>
       <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v/>
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="23" customFormat="1">
       <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
       </c>
       <c r="B30" s="18" t="str">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$AF$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$19:$AF$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v/>
       </c>
       <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v/>
       </c>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="23" customFormat="1">
       <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
       </c>
       <c r="B31" s="18" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$AF$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$19:$AF$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v/>
       </c>
       <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v/>
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="23" customFormat="1">
       <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
       </c>
       <c r="B32" s="18" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$AF$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$19:$AF$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v/>
       </c>
       <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v/>
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="23" customFormat="1">
       <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
       </c>
       <c r="B33" s="18" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$AF$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$19:$AF$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v/>
       </c>
       <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v/>
       </c>
       <c r="D33" s="27"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
       </c>
       <c r="B34" s="18" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$AF$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$19:$AF$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v/>
       </c>
       <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v/>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="23" customFormat="1">
       <c r="A35" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$34,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$34,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
       </c>
       <c r="B35" s="18" t="str">
-        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$AF$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$19:$AF$29,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$29,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v/>
       </c>
       <c r="C35" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$34,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$34,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v/>
       </c>
       <c r="D35" s="27"/>
     </row>
-    <row r="36" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="23" customFormat="1">
       <c r="A36" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$34,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$34,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
       </c>
       <c r="B36" s="18" t="str">
-        <f>IF(D36&lt;&gt;"",D36,IF(LEN(INDEX(Lookups!$C$21:$AF$34,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$34,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D36&lt;&gt;"",D36,IF(LEN(INDEX(Lookups!$C$19:$AF$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v/>
       </c>
       <c r="C36" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$34,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$34,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v/>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="23" customFormat="1">
       <c r="A37" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$34,13,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$34,13,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
       </c>
       <c r="B37" s="18" t="str">
-        <f>IF(D37&lt;&gt;"",D37,IF(LEN(INDEX(Lookups!$C$21:$AF$34,13,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$34,13,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D37&lt;&gt;"",D37,IF(LEN(INDEX(Lookups!$C$19:$AF$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v/>
       </c>
       <c r="C37" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$34,13,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$34,13,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v/>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="23" customFormat="1">
       <c r="A38" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$34,14,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))=0,"",INDEX(Lookups!$C$21:$AF$34,14,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
       </c>
       <c r="B38" s="18" t="str">
-        <f>IF(D38&lt;&gt;"",D38,IF(LEN(INDEX(Lookups!$C$21:$AF$34,14,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1))=0,"",INDEX(Lookups!$C$21:$AF$34,14,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)-1)))</f>
+        <f>IF(D38&lt;&gt;"",D38,IF(LEN(INDEX(Lookups!$C$19:$AF$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1))=0,"",INDEX(Lookups!$C$19:$AF$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-1)))</f>
         <v/>
       </c>
       <c r="C38" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AF$34,14,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))=0,"",INDEX(Lookups!$C$21:$AF$34,14,3*MATCH(Setup!$B22,Lookups!$A$21:$A$30,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))=0,"",INDEX(Lookups!$C$19:$AF$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)))</f>
         <v/>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A39" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>31</v>
@@ -6426,15 +6408,15 @@
       <c r="E39" s="6"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A42" s="6" t="s">
         <v>30</v>
       </c>
@@ -6445,31 +6427,31 @@
         <v>38</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="8" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="28">
       <c r="A43" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A45" s="6" t="s">
         <v>35</v>
       </c>
@@ -6477,54 +6459,54 @@
         <v>34</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="8" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A48" s="6" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="8" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1">
       <c r="B49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="23" customFormat="1">
       <c r="B50" s="18"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A51" s="6" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="8" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -6560,35 +6542,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="23" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="1"/>
-    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="1"/>
+    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="1"/>
-    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="1"/>
+    <col min="19" max="19" width="11.5" style="1"/>
+    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="1"/>
+    <col min="25" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6624,7 +6606,7 @@
       <c r="Y1" s="52"/>
       <c r="Z1" s="52"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -6632,10 +6614,10 @@
         <v>37</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
@@ -6660,7 +6642,7 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -6677,7 +6659,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>11</v>
@@ -6704,7 +6686,7 @@
         <v>9</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P3" s="38" t="s">
         <v>477</v>
@@ -6738,7 +6720,7 @@
       </c>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="29" customFormat="1">
       <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
@@ -6776,7 +6758,7 @@
       <c r="Y4" s="39"/>
       <c r="Z4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="22" customFormat="1">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6816,14 +6798,14 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="28" customFormat="1">
       <c r="A6" s="42"/>
       <c r="B6" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6864,7 +6846,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="28" customFormat="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
@@ -6902,7 +6884,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="22" customFormat="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6940,7 +6922,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="22" customFormat="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6978,7 +6960,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="22" customFormat="1">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -7016,7 +6998,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="22" customFormat="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -7054,7 +7036,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="29" customFormat="1">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -7092,7 +7074,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="28" customFormat="1">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -7130,7 +7112,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="22" customFormat="1">
       <c r="A14" s="39" t="b">
         <v>1</v>
       </c>
@@ -7168,14 +7150,14 @@
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
     </row>
-    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="22" customFormat="1">
       <c r="A15" s="42"/>
       <c r="B15" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7216,7 +7198,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
@@ -7254,14 +7236,14 @@
       <c r="Y16" s="39"/>
       <c r="Z16" s="39"/>
     </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7291,7 +7273,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7302,7 +7284,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7340,7 +7322,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7378,7 +7360,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7416,7 +7398,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
@@ -7454,14 +7436,14 @@
       <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
     </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A22" s="46"/>
       <c r="B22" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7489,10 +7471,10 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7506,7 +7488,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7544,7 +7526,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7582,7 +7564,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7620,12 +7602,12 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7658,14 +7640,14 @@
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
     </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A27" s="46"/>
       <c r="B27" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7706,7 +7688,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7744,7 +7726,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7762,7 +7744,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>84</v>
@@ -7784,12 +7766,12 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -7822,14 +7804,14 @@
       <c r="Y30" s="39"/>
       <c r="Z30" s="39"/>
     </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A31" s="46"/>
       <c r="B31" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7870,7 +7852,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7908,7 +7890,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7926,7 +7908,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7948,7 +7930,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" s="28" customFormat="1">
       <c r="A34" s="39" t="b">
         <v>1</v>
       </c>
@@ -7986,20 +7968,20 @@
       <c r="Y34" s="39"/>
       <c r="Z34" s="39"/>
     </row>
-    <row r="35" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="22" customFormat="1">
       <c r="A35" s="42"/>
       <c r="B35" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -8036,7 +8018,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" s="22" customFormat="1">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
@@ -8076,7 +8058,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="22" customFormat="1">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -8114,7 +8096,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="29" customFormat="1">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -8133,7 +8115,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -8152,7 +8134,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A39" s="47" t="b">
         <v>1</v>
       </c>
@@ -8190,7 +8172,7 @@
       <c r="Y39" s="29"/>
       <c r="Z39" s="29"/>
     </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A40" s="48"/>
       <c r="B40" s="48" t="s">
         <v>22</v>
@@ -8241,7 +8223,7 @@
       <c r="Y40" s="50"/>
       <c r="Z40" s="50"/>
     </row>
-    <row r="41" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A41" s="48"/>
       <c r="B41" s="48" t="s">
         <v>22</v>
@@ -8292,7 +8274,7 @@
       <c r="Y41" s="50"/>
       <c r="Z41" s="50"/>
     </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -8315,34 +8297,34 @@
       <c r="J42" s="10"/>
       <c r="P42" s="23"/>
     </row>
-    <row r="43" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" s="29" customFormat="1">
       <c r="A43" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" s="28" customFormat="1">
       <c r="A44" s="50"/>
       <c r="B44" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="50"/>
       <c r="D44" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="E44" s="50" t="s">
         <v>535</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>536</v>
       </c>
       <c r="F44" s="50"/>
       <c r="G44" s="50" t="s">
@@ -8383,18 +8365,18 @@
       <c r="Y44" s="50"/>
       <c r="Z44" s="50"/>
     </row>
-    <row r="45" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" s="22" customFormat="1">
       <c r="A45" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E45" s="29" t="s">
         <v>68</v>
@@ -8421,17 +8403,17 @@
       <c r="Y45" s="29"/>
       <c r="Z45" s="29"/>
     </row>
-    <row r="46" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" s="22" customFormat="1">
       <c r="A46" s="50"/>
       <c r="B46" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="50" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F46" s="50"/>
       <c r="G46" s="50" t="s">
@@ -8472,7 +8454,7 @@
       <c r="Y46" s="50"/>
       <c r="Z46" s="50"/>
     </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A47" s="45" t="b">
         <v>1</v>
       </c>
@@ -8510,7 +8492,7 @@
       <c r="Y47" s="39"/>
       <c r="Z47" s="39"/>
     </row>
-    <row r="48" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -8550,7 +8532,7 @@
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -8590,7 +8572,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8618,7 +8600,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" customFormat="1" ht="15">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8646,7 +8628,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" customFormat="1" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8674,7 +8656,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" customFormat="1" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8702,7 +8684,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" customFormat="1" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8730,7 +8712,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" customFormat="1" ht="15">
       <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8758,7 +8740,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8786,7 +8768,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" customFormat="1" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8814,7 +8796,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="15">
       <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -8842,7 +8824,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8870,7 +8852,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8898,7 +8880,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15">
       <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8926,7 +8908,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8954,7 +8936,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8982,7 +8964,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="15">
       <c r="A64" s="15"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -9010,7 +8992,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -9038,7 +9020,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -9066,7 +9048,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15">
       <c r="A67" s="15"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -9094,7 +9076,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -9122,7 +9104,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -9150,7 +9132,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -9178,7 +9160,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -9206,7 +9188,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -9234,7 +9216,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -9262,7 +9244,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -9290,7 +9272,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9318,7 +9300,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9346,7 +9328,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9374,7 +9356,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9402,7 +9384,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="15">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9430,7 +9412,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9458,7 +9440,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9486,7 +9468,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9514,7 +9496,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9542,7 +9524,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9570,7 +9552,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9598,7 +9580,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="15">
       <c r="A86" s="10"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -9626,7 +9608,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9654,7 +9636,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9682,7 +9664,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9710,7 +9692,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -9738,7 +9720,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9766,7 +9748,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9794,7 +9776,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9822,7 +9804,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9850,7 +9832,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9878,7 +9860,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9906,7 +9888,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9934,7 +9916,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9981,30 +9963,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="18">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -10021,15 +10003,15 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
       <c r="A2" s="35" t="s">
         <v>461</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>462</v>
@@ -10041,41 +10023,41 @@
         <v>11</v>
       </c>
       <c r="G2" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>620</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>621</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>622</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
+      <c r="A3" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="B3" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>625</v>
       </c>
-      <c r="M2" s="35"/>
-    </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="D3" s="35" t="s">
         <v>626</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>640</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>627</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>628</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>463</v>
@@ -10087,28 +10069,28 @@
         <v>463</v>
       </c>
       <c r="J3" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>629</v>
+      </c>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" s="23" customFormat="1">
+      <c r="A4" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="K3" s="35" t="s">
-        <v>630</v>
-      </c>
-      <c r="L3" s="35" t="s">
+      <c r="B4" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="M3" s="35"/>
-    </row>
-    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>632</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>634</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>470</v>
@@ -10132,18 +10114,18 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="23" customFormat="1">
       <c r="A5" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>635</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>637</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>470</v>
@@ -10169,17 +10151,17 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>64</v>
@@ -10198,17 +10180,17 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>64</v>
@@ -10227,17 +10209,17 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -10256,17 +10238,17 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -10285,14 +10267,14 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>470</v>
@@ -10314,14 +10296,14 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>470</v>
@@ -10343,14 +10325,14 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10372,14 +10354,14 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10401,14 +10383,14 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10430,14 +10412,14 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10459,14 +10441,14 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10488,14 +10470,14 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10517,14 +10499,14 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10546,14 +10528,14 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10575,14 +10557,14 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10604,14 +10586,14 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="23" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10633,14 +10615,14 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="23" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10662,14 +10644,14 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10691,17 +10673,17 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>64</v>
@@ -10720,7 +10702,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -10735,7 +10717,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -10750,7 +10732,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10765,7 +10747,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10780,202 +10762,202 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="22"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="22"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="22"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="22"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="22"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="22"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="22"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="22"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="22"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="22"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="22"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="22"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="22"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="22"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="22"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="22"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="22"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="22"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="22"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="22"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="22"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="22"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="22"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="22"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="22"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="22"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="22"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="22"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2">
       <c r="B74" s="22"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2">
       <c r="B75" s="22"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2">
       <c r="B76" s="22"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
       <c r="B77" s="22"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2">
       <c r="B78" s="22"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2">
       <c r="B79" s="22"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2">
       <c r="B80" s="22"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2">
       <c r="B81" s="22"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2">
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2">
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2">
       <c r="B84" s="22"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2">
       <c r="B85" s="22"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2">
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2">
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2">
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2">
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2">
       <c r="B90" s="22"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2">
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2">
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2">
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2">
       <c r="B94" s="22"/>
     </row>
   </sheetData>
@@ -10997,19 +10979,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -11028,7 +11010,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -11049,7 +11031,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -11072,7 +11054,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -11095,7 +11077,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -11118,7 +11100,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -11141,7 +11123,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -11164,7 +11146,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -11187,7 +11169,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -11210,7 +11192,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11233,7 +11215,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11252,7 +11234,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11273,7 +11255,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11296,7 +11278,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11319,7 +11301,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11342,7 +11324,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11365,7 +11347,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11388,7 +11370,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11411,7 +11393,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11434,7 +11416,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11457,7 +11439,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11476,7 +11458,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11499,7 +11481,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11522,7 +11504,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11545,7 +11527,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11568,7 +11550,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11591,7 +11573,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11614,7 +11596,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11637,7 +11619,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11660,7 +11642,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11683,7 +11665,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11702,7 +11684,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11723,7 +11705,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11746,7 +11728,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11769,7 +11751,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11792,7 +11774,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11815,7 +11797,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11838,7 +11820,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11861,7 +11843,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11884,7 +11866,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11907,7 +11889,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11926,7 +11908,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11947,7 +11929,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11970,7 +11952,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11993,7 +11975,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -12016,7 +11998,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -12039,7 +12021,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -12062,7 +12044,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -12085,7 +12067,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -12108,7 +12090,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -12131,7 +12113,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -12150,7 +12132,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -12171,7 +12153,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -12194,7 +12176,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -12217,7 +12199,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12240,7 +12222,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12263,7 +12245,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12286,7 +12268,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12309,7 +12291,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12332,7 +12314,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12355,7 +12337,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12374,7 +12356,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12395,7 +12377,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12420,7 +12402,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12443,7 +12425,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12466,7 +12448,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12489,7 +12471,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12512,7 +12494,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12535,7 +12517,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12558,7 +12540,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12581,7 +12563,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12604,7 +12586,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12623,7 +12605,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12644,7 +12626,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12667,7 +12649,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12692,7 +12674,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12715,7 +12697,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12738,7 +12720,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12761,7 +12743,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12784,7 +12766,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12807,7 +12789,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12830,7 +12812,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12853,7 +12835,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12876,7 +12858,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12899,7 +12881,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12922,7 +12904,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12941,7 +12923,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12964,7 +12946,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12987,7 +12969,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -13010,7 +12992,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -13033,7 +13015,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -13056,7 +13038,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -13079,7 +13061,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -13102,7 +13084,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -13125,7 +13107,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -13148,7 +13130,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -13171,7 +13153,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -13190,7 +13172,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -13215,7 +13197,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13234,7 +13216,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13255,7 +13237,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13280,7 +13262,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13299,7 +13281,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13322,7 +13304,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13347,7 +13329,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13370,7 +13352,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13391,7 +13373,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13410,7 +13392,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13435,7 +13417,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13458,7 +13440,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13481,7 +13463,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13504,7 +13486,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13527,7 +13509,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13550,7 +13532,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13573,7 +13555,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13592,7 +13574,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13615,7 +13597,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13638,7 +13620,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13661,7 +13643,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13680,7 +13662,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13703,7 +13685,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13726,7 +13708,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13749,7 +13731,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13772,7 +13754,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13795,7 +13777,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13818,7 +13800,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13837,7 +13819,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13862,7 +13844,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13885,7 +13867,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13908,7 +13890,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13931,7 +13913,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13954,7 +13936,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13977,7 +13959,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -14000,7 +13982,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -14023,7 +14005,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -14046,7 +14028,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -14065,7 +14047,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -14090,7 +14072,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -14111,7 +14093,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -14134,7 +14116,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -14157,7 +14139,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -14180,7 +14162,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -14203,7 +14185,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14226,7 +14208,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14249,7 +14231,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14272,7 +14254,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14295,7 +14277,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14318,7 +14300,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14341,7 +14323,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14364,7 +14346,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14387,7 +14369,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14406,7 +14388,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14429,7 +14411,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14448,7 +14430,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14471,7 +14453,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14494,7 +14476,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14513,7 +14495,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14538,7 +14520,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14561,7 +14543,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14584,7 +14566,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14607,7 +14589,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14630,7 +14612,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14653,7 +14635,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14676,7 +14658,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14699,7 +14681,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14722,7 +14704,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14745,7 +14727,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14764,7 +14746,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14789,7 +14771,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14812,7 +14794,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14835,7 +14817,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14858,7 +14840,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14881,7 +14863,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14904,7 +14886,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14927,7 +14909,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14950,7 +14932,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14973,7 +14955,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14996,7 +14978,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -15015,7 +14997,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -15038,7 +15020,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -15061,7 +15043,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -15084,7 +15066,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -15107,7 +15089,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -15126,7 +15108,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -15149,7 +15131,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -15172,7 +15154,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -15195,7 +15177,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -15218,7 +15200,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15237,7 +15219,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15258,7 +15240,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15281,7 +15263,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15300,7 +15282,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15323,7 +15305,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15348,7 +15330,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15369,7 +15351,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15394,7 +15376,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15419,7 +15401,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15438,7 +15420,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15463,7 +15445,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15486,7 +15468,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15509,7 +15491,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15532,7 +15514,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15555,7 +15537,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15578,7 +15560,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15601,7 +15583,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15624,7 +15606,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15647,7 +15629,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15666,7 +15648,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15691,7 +15673,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15714,7 +15696,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15737,7 +15719,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15760,7 +15742,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15783,7 +15765,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15806,7 +15788,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15829,7 +15811,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15852,7 +15834,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15875,7 +15857,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15894,7 +15876,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15915,7 +15897,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15938,7 +15920,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15961,7 +15943,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15984,7 +15966,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -16007,7 +15989,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -16030,7 +16012,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -16053,7 +16035,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -16076,7 +16058,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -16099,7 +16081,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -16122,7 +16104,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -16145,7 +16127,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -16168,7 +16150,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -16191,7 +16173,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -16214,7 +16196,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16237,7 +16219,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16260,7 +16242,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16279,7 +16261,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16300,7 +16282,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16323,7 +16305,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16346,7 +16328,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16369,7 +16351,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16392,7 +16374,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16415,7 +16397,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16438,7 +16420,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16461,7 +16443,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16484,7 +16466,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16507,7 +16489,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16530,7 +16512,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16553,7 +16535,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16576,7 +16558,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16599,7 +16581,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16622,7 +16604,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16645,7 +16627,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16664,7 +16646,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16689,7 +16671,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16712,7 +16694,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16735,7 +16717,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16758,7 +16740,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16781,7 +16763,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16800,7 +16782,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16825,7 +16807,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16848,7 +16830,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16867,7 +16849,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16886,7 +16868,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16905,7 +16887,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16926,7 +16908,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16949,7 +16931,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16972,7 +16954,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16995,7 +16977,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -17018,7 +17000,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -17041,7 +17023,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -17064,7 +17046,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -17087,7 +17069,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -17110,7 +17092,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -17133,7 +17115,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -17156,7 +17138,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -17175,7 +17157,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -17198,7 +17180,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -17217,7 +17199,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17242,7 +17224,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17265,7 +17247,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17288,7 +17270,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17311,7 +17293,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17334,7 +17316,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17357,7 +17339,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17380,7 +17362,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17403,7 +17385,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17426,7 +17408,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17449,7 +17431,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17472,7 +17454,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17491,7 +17473,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17514,7 +17496,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17533,7 +17515,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17554,7 +17536,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17573,7 +17555,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17594,7 +17576,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17613,7 +17595,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17634,7 +17616,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17653,7 +17635,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17676,7 +17658,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17695,7 +17677,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17720,7 +17702,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17743,7 +17725,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17766,7 +17748,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17789,7 +17771,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17812,7 +17794,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17835,7 +17817,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17858,7 +17840,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17881,7 +17863,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17904,7 +17886,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17923,7 +17905,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17946,7 +17928,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17969,7 +17951,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17992,7 +17974,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -18015,7 +17997,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -18034,7 +18016,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -18057,7 +18039,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -18080,7 +18062,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -18105,7 +18087,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -18124,7 +18106,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -18149,7 +18131,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -18172,7 +18154,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -18191,7 +18173,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -18212,7 +18194,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18233,7 +18215,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18256,7 +18238,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18275,7 +18257,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18294,7 +18276,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18319,7 +18301,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18344,7 +18326,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18358,7 +18340,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18381,7 +18363,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18401,7 +18383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18421,7 +18403,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18441,7 +18423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18458,7 +18440,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18481,7 +18463,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18504,7 +18486,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18518,7 +18500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18541,7 +18523,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18564,7 +18546,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18584,7 +18566,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18604,7 +18586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18621,15 +18603,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>68</v>
@@ -18647,7 +18629,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18656,7 +18638,7 @@
         <v>481</v>
       </c>
       <c r="D343" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -18665,10 +18647,10 @@
         <v>62</v>
       </c>
       <c r="H343" t="s">
+        <v>520</v>
+      </c>
+      <c r="I343" t="s">
         <v>521</v>
-      </c>
-      <c r="I343" t="s">
-        <v>522</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -18676,16 +18658,16 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
       </c>
       <c r="C344" t="s">
+        <v>518</v>
+      </c>
+      <c r="D344" t="s">
         <v>519</v>
-      </c>
-      <c r="D344" t="s">
-        <v>520</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -18715,29 +18697,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C345" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
       <c r="C346" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -18749,7 +18731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18763,7 +18745,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18783,7 +18765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18803,7 +18785,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18823,7 +18805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18843,7 +18825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18863,7 +18845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18883,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18903,7 +18885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18923,7 +18905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18943,29 +18925,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C357" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D357" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
       <c r="C358" t="s">
+        <v>528</v>
+      </c>
+      <c r="D358" t="s">
         <v>529</v>
-      </c>
-      <c r="D358" t="s">
-        <v>530</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -18977,15 +18959,15 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D359" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -18997,15 +18979,15 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>68</v>
@@ -19013,7 +18995,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19021,7 +19003,7 @@
         <v>481</v>
       </c>
       <c r="D361" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -19031,24 +19013,24 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
+        <v>520</v>
+      </c>
+      <c r="I361" t="s">
         <v>521</v>
-      </c>
-      <c r="I361" t="s">
-        <v>522</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
       </c>
       <c r="C362" t="s">
+        <v>518</v>
+      </c>
+      <c r="D362" t="s">
         <v>519</v>
-      </c>
-      <c r="D362" t="s">
-        <v>520</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -19080,29 +19062,29 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C363" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
       <c r="C364" t="s">
+        <v>534</v>
+      </c>
+      <c r="D364" t="s">
         <v>535</v>
-      </c>
-      <c r="D364" t="s">
-        <v>536</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -19114,29 +19096,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C365" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D366" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -19161,23 +19143,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView topLeftCell="J9" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19188,115 +19170,115 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>644</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="22" customFormat="1">
       <c r="A3" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>445</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="22" customFormat="1">
+      <c r="A4" s="22" t="s">
         <v>593</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>645</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>594</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="22" customFormat="1">
+      <c r="A5" s="22" t="s">
         <v>595</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>596</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="22" customFormat="1">
+      <c r="A6" s="22" t="s">
         <v>597</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>598</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>445</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="22" customFormat="1">
+      <c r="A7" s="22" t="s">
         <v>599</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>600</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="22" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>440</v>
       </c>
@@ -19304,532 +19286,498 @@
         <v>447</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="22" customFormat="1">
+      <c r="A9" s="22" t="s">
         <v>602</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>603</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>448</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="B10" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>650</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>651</v>
-      </c>
       <c r="E10" s="22" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>719</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>720</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>721</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>722</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>723</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>721</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="22" customFormat="1"/>
+    <row r="12" spans="1:7" s="22" customFormat="1"/>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>571</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="E13" t="s">
+        <v>556</v>
+      </c>
+      <c r="G13" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>456</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>557</v>
+      </c>
+      <c r="G14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="22" customFormat="1"/>
+    <row r="18" spans="1:29">
+      <c r="A18" t="s">
+        <v>550</v>
+      </c>
+      <c r="C18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>558</v>
+      </c>
+      <c r="L18" t="s">
+        <v>561</v>
+      </c>
+      <c r="O18" t="s">
+        <v>565</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="U18" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" t="s">
+        <v>731</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s">
+        <v>551</v>
+      </c>
+      <c r="F19" t="s">
         <v>572</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="E15" t="s">
-        <v>557</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G19" t="s">
+        <v>456</v>
+      </c>
+      <c r="H19" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>456</v>
-      </c>
-      <c r="C16" t="b">
+      <c r="I19" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>581</v>
+      </c>
+      <c r="O19" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="U19" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="V19" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="W19" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA19" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="AB19" s="22">
+        <v>30</v>
+      </c>
+      <c r="AC19" s="22" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>590</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J20" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="K20" t="s">
+        <v>578</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>580</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="22">
+        <v>2</v>
+      </c>
+      <c r="W20" s="22" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" t="s">
+        <v>544</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J21" s="21">
+        <v>45036000000000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>577</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>585</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="P21">
+        <v>0.85</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" t="s">
+        <v>553</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s">
+        <v>576</v>
+      </c>
+      <c r="L22" t="s">
+        <v>582</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>583</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" t="s">
+        <v>552</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="M23" s="22">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>558</v>
-      </c>
-      <c r="G16" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>551</v>
-      </c>
-      <c r="C20" t="s">
-        <v>552</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>559</v>
-      </c>
-      <c r="L20" t="s">
-        <v>562</v>
-      </c>
-      <c r="O20" t="s">
-        <v>566</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>555</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>744</v>
-      </c>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" t="s">
-        <v>739</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>552</v>
-      </c>
-      <c r="F21" t="s">
-        <v>573</v>
-      </c>
-      <c r="G21" t="s">
-        <v>456</v>
-      </c>
-      <c r="H21" t="s">
-        <v>575</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="J21" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="M21">
-        <v>30</v>
-      </c>
-      <c r="N21" t="s">
-        <v>582</v>
-      </c>
-      <c r="O21" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="U21" s="22" t="s">
-        <v>754</v>
-      </c>
-      <c r="V21" s="22" t="s">
-        <v>746</v>
-      </c>
-      <c r="W21" s="22" t="s">
-        <v>746</v>
-      </c>
-      <c r="AA21" s="22" t="s">
-        <v>741</v>
-      </c>
-      <c r="AB21" s="22">
-        <v>30</v>
-      </c>
-      <c r="AC21" s="22" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s">
-        <v>591</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="J22" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="K22" t="s">
-        <v>579</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="M22">
+      <c r="N23" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="P23">
         <v>5</v>
       </c>
-      <c r="N22" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="P22">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>581</v>
-      </c>
-      <c r="U22" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="22">
-        <v>2</v>
-      </c>
-      <c r="W22" s="22" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>545</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="J23" s="21">
-        <v>45036000000000</v>
-      </c>
-      <c r="K23" t="s">
-        <v>578</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23" t="s">
-        <v>586</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="P23">
-        <v>0.85</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q23" s="22" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
         <v>554</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="J24">
-        <v>100</v>
+        <v>543</v>
+      </c>
+      <c r="J24" s="23">
+        <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>577</v>
-      </c>
-      <c r="L24" t="s">
-        <v>583</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
+        <v>575</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M24" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="N24" s="23" t="s">
         <v>584</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="Q24" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>553</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="M25" s="22">
-        <v>1</v>
+        <v>736</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="J25" s="23">
+        <v>0</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="M25" s="21">
+        <v>0.01</v>
       </c>
       <c r="N25" s="23" t="s">
-        <v>750</v>
+        <v>579</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>570</v>
-      </c>
-      <c r="P25">
-        <v>5</v>
+        <v>743</v>
+      </c>
+      <c r="P25" s="22">
+        <v>2</v>
       </c>
       <c r="Q25" s="22" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>555</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="J26" s="23">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>576</v>
+        <v>731</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="M26" s="21">
         <v>0.01</v>
       </c>
-      <c r="N26" s="23" t="s">
-        <v>585</v>
+      <c r="N26" s="22" t="s">
+        <v>578</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="P26">
-        <v>0.8</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>744</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>742</v>
-      </c>
-      <c r="J27" s="23">
-        <v>0</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="L27" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="M27" s="21">
+        <v>45036000000000</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="P27" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="L28" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="M28" s="22">
+        <v>100</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="O28" t="s">
+        <v>734</v>
+      </c>
+      <c r="P28" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="23" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="L29" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="M27" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="N27" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="O27" s="23" t="s">
-        <v>752</v>
-      </c>
-      <c r="P27" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="22" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="M29" s="23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="L30" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="M30" s="23">
+        <v>2</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="L31" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="M31" s="23">
+        <v>0</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="L32" t="s">
         <v>739</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="M28" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="O28" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="M32" s="23">
+        <v>1</v>
+      </c>
+      <c r="N32" s="23" t="s">
         <v>740</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="M29" s="21">
-        <v>45036000000000</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="O29" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="P29" s="23">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="22" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="L30" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="M30" s="22">
-        <v>100</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="O30" t="s">
-        <v>742</v>
-      </c>
-      <c r="P30" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="23" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="L31" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="L32" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="M32" s="23">
-        <v>2</v>
-      </c>
-      <c r="N32" s="22" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L33" s="22" t="s">
-        <v>742</v>
-      </c>
-      <c r="M33" s="23">
-        <v>0</v>
-      </c>
-      <c r="N33" s="23" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="34" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L34" t="s">
-        <v>747</v>
-      </c>
-      <c r="M34" s="23">
-        <v>1</v>
-      </c>
-      <c r="N34" s="23" t="s">
-        <v>748</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/projects/template.xlsx
+++ b/projects/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -5886,8 +5886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19145,7 +19145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>

--- a/projects/template.xlsx
+++ b/projects/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="48240" windowHeight="16440" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$14:$C$15</definedName>
     <definedName name="Workflow">Lookups!$E$14:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="755">
   <si>
     <t>type</t>
   </si>
@@ -2290,6 +2290,21 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>baseline_perturbation</t>
+  </si>
+  <si>
+    <t>in_measure_combinations</t>
+  </si>
+  <si>
+    <t>(TRUE/FALSE) Run full factorial search over in-measure variable combinations</t>
+  </si>
+  <si>
+    <t>include_baseline_in_combinations</t>
+  </si>
+  <si>
+    <t>(TRUE/FALSE) If in_measure_combinations are TRUE, sets if static values be included in combinations</t>
   </si>
 </sst>
 </file>
@@ -5886,21 +5901,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="33.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="61.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="20"/>
       <c r="C1" s="12"/>
@@ -5910,7 +5925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>435</v>
       </c>
@@ -5920,7 +5935,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -5931,7 +5946,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>458</v>
       </c>
@@ -5942,7 +5957,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>471</v>
       </c>
@@ -5953,7 +5968,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46" customHeight="1">
+    <row r="6" spans="1:6" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>472</v>
       </c>
@@ -5964,7 +5979,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -5987,7 +6002,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6010,7 +6025,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -6029,7 +6044,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>716</v>
       </c>
@@ -6043,7 +6058,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -6053,7 +6068,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -6064,7 +6079,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6075,7 +6090,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6086,7 +6101,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>464</v>
       </c>
@@ -6097,7 +6112,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>465</v>
       </c>
@@ -6108,7 +6123,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6119,7 +6134,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>468</v>
       </c>
@@ -6130,7 +6145,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -6144,7 +6159,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
@@ -6152,12 +6167,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="23" customFormat="1">
+    <row r="23" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>451</v>
       </c>
@@ -6175,7 +6190,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v>Sample Method</v>
@@ -6191,7 +6206,7 @@
       <c r="D25" s="27"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:6" ht="28">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v>Number of Samples</v>
@@ -6209,7 +6224,7 @@
       </c>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6225,7 +6240,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:6" s="23" customFormat="1">
+    <row r="28" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6240,7 +6255,7 @@
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:6" s="23" customFormat="1">
+    <row r="29" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6255,7 +6270,7 @@
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1">
+    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6270,7 +6285,7 @@
       </c>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="1:6" s="23" customFormat="1">
+    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6285,7 +6300,7 @@
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="1:6" s="23" customFormat="1">
+    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6300,7 +6315,7 @@
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:6" s="23" customFormat="1">
+    <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6315,7 +6330,7 @@
       </c>
       <c r="D33" s="27"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6331,7 +6346,7 @@
       <c r="D34" s="27"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="1:6" s="23" customFormat="1">
+    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6346,7 +6361,7 @@
       </c>
       <c r="D35" s="27"/>
     </row>
-    <row r="36" spans="1:6" s="23" customFormat="1">
+    <row r="36" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6362,7 +6377,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="23" customFormat="1">
+    <row r="37" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6378,7 +6393,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:6" s="23" customFormat="1">
+    <row r="38" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6394,7 +6409,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>33</v>
       </c>
@@ -6408,7 +6423,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -6416,7 +6431,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>30</v>
       </c>
@@ -6434,7 +6449,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>32</v>
       </c>
@@ -6451,7 +6466,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>35</v>
       </c>
@@ -6467,7 +6482,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="48" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>719</v>
       </c>
@@ -6483,17 +6498,17 @@
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" s="23" customFormat="1">
+    <row r="50" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>723</v>
       </c>
@@ -6511,7 +6526,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
       <formula1>AnalysisType</formula1>
     </dataValidation>
@@ -6544,33 +6559,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="1"/>
-    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="1"/>
-    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.5" style="1"/>
-    <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.5" style="1"/>
+    <col min="4" max="4" width="39.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="7.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="1"/>
+    <col min="17" max="17" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="1"/>
+    <col min="20" max="20" width="46.140625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.42578125" style="1"/>
+    <col min="24" max="24" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6606,7 +6621,7 @@
       <c r="Y1" s="52"/>
       <c r="Z1" s="52"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -6642,7 +6657,7 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -6720,7 +6735,7 @@
       </c>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1">
+    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
@@ -6758,7 +6773,7 @@
       <c r="Y4" s="39"/>
       <c r="Z4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="22" customFormat="1">
+    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6798,7 +6813,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1">
+    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
       <c r="B6" s="42" t="s">
         <v>22</v>
@@ -6846,7 +6861,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" s="28" customFormat="1">
+    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
@@ -6884,7 +6899,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1">
+    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6922,7 +6937,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1">
+    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6960,7 +6975,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1">
+    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -6998,7 +7013,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1">
+    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -7036,7 +7051,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1">
+    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -7074,7 +7089,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1">
+    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -7112,7 +7127,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1">
+    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="b">
         <v>1</v>
       </c>
@@ -7150,7 +7165,7 @@
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
     </row>
-    <row r="15" spans="1:26" s="22" customFormat="1">
+    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="42" t="s">
         <v>22</v>
@@ -7198,7 +7213,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
@@ -7236,7 +7251,7 @@
       <c r="Y16" s="39"/>
       <c r="Z16" s="39"/>
     </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="17" spans="1:26" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
         <v>22</v>
@@ -7284,7 +7299,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="18" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7322,7 +7337,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="19" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7360,7 +7375,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="20" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7398,7 +7413,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="21" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
@@ -7436,7 +7451,7 @@
       <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
     </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="22" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
       <c r="B22" s="46" t="s">
         <v>22</v>
@@ -7488,7 +7503,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="23" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7526,7 +7541,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="24" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7564,7 +7579,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="25" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7602,7 +7617,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="26" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
@@ -7640,7 +7655,7 @@
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
     </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" s="46" t="s">
         <v>22</v>
@@ -7688,7 +7703,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="28" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7726,7 +7741,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="29" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7766,7 +7781,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="30" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
@@ -7804,7 +7819,7 @@
       <c r="Y30" s="39"/>
       <c r="Z30" s="39"/>
     </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="31" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" s="46" t="s">
         <v>22</v>
@@ -7852,7 +7867,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="32" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7890,7 +7905,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="33" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7930,7 +7945,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="28" customFormat="1">
+    <row r="34" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="b">
         <v>1</v>
       </c>
@@ -7968,7 +7983,7 @@
       <c r="Y34" s="39"/>
       <c r="Z34" s="39"/>
     </row>
-    <row r="35" spans="1:26" s="22" customFormat="1">
+    <row r="35" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="42" t="s">
         <v>22</v>
@@ -8018,7 +8033,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" s="22" customFormat="1">
+    <row r="36" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
@@ -8058,7 +8073,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="22" customFormat="1">
+    <row r="37" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -8096,7 +8111,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="29" customFormat="1">
+    <row r="38" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -8134,7 +8149,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="39" spans="1:26" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="b">
         <v>1</v>
       </c>
@@ -8172,7 +8187,7 @@
       <c r="Y39" s="29"/>
       <c r="Z39" s="29"/>
     </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="40" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="48" t="s">
         <v>22</v>
@@ -8223,7 +8238,7 @@
       <c r="Y40" s="50"/>
       <c r="Z40" s="50"/>
     </row>
-    <row r="41" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="41" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="48"/>
       <c r="B41" s="48" t="s">
         <v>22</v>
@@ -8274,7 +8289,7 @@
       <c r="Y41" s="50"/>
       <c r="Z41" s="50"/>
     </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="42" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -8297,7 +8312,7 @@
       <c r="J42" s="10"/>
       <c r="P42" s="23"/>
     </row>
-    <row r="43" spans="1:26" s="29" customFormat="1">
+    <row r="43" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="b">
         <v>1</v>
       </c>
@@ -8314,7 +8329,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="28" customFormat="1">
+    <row r="44" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
       <c r="B44" s="50" t="s">
         <v>22</v>
@@ -8365,7 +8380,7 @@
       <c r="Y44" s="50"/>
       <c r="Z44" s="50"/>
     </row>
-    <row r="45" spans="1:26" s="22" customFormat="1">
+    <row r="45" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="b">
         <v>1</v>
       </c>
@@ -8403,7 +8418,7 @@
       <c r="Y45" s="29"/>
       <c r="Z45" s="29"/>
     </row>
-    <row r="46" spans="1:26" s="22" customFormat="1">
+    <row r="46" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="50" t="s">
         <v>22</v>
@@ -8454,7 +8469,7 @@
       <c r="Y46" s="50"/>
       <c r="Z46" s="50"/>
     </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="47" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="b">
         <v>1</v>
       </c>
@@ -8492,7 +8507,7 @@
       <c r="Y47" s="39"/>
       <c r="Z47" s="39"/>
     </row>
-    <row r="48" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="48" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -8532,7 +8547,7 @@
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -8572,7 +8587,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8600,7 +8615,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15">
+    <row r="51" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8628,7 +8643,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15">
+    <row r="52" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8656,7 +8671,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15">
+    <row r="53" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8684,7 +8699,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15">
+    <row r="54" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8712,7 +8727,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15">
+    <row r="55" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8740,7 +8755,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15">
+    <row r="56" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8768,7 +8783,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15">
+    <row r="57" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8796,7 +8811,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15">
+    <row r="58" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -8824,7 +8839,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15">
+    <row r="59" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8852,7 +8867,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15">
+    <row r="60" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8880,7 +8895,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15">
+    <row r="61" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8908,7 +8923,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15">
+    <row r="62" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8936,7 +8951,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15">
+    <row r="63" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8964,7 +8979,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15">
+    <row r="64" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -8992,7 +9007,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15">
+    <row r="65" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -9020,7 +9035,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15">
+    <row r="66" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -9048,7 +9063,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15">
+    <row r="67" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -9076,7 +9091,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15">
+    <row r="68" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -9104,7 +9119,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15">
+    <row r="69" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -9132,7 +9147,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -9160,7 +9175,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -9188,7 +9203,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -9216,7 +9231,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -9244,7 +9259,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -9272,7 +9287,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9300,7 +9315,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9328,7 +9343,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9356,7 +9371,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9384,7 +9399,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" ht="15">
+    <row r="79" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9412,7 +9427,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9440,7 +9455,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9468,7 +9483,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9496,7 +9511,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9524,7 +9539,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9552,7 +9567,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9580,7 +9595,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" ht="15">
+    <row r="86" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -9608,7 +9623,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9636,7 +9651,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9664,7 +9679,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9692,7 +9707,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -9720,7 +9735,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9748,7 +9763,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9776,7 +9791,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9804,7 +9819,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9832,7 +9847,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9860,7 +9875,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9888,7 +9903,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9916,7 +9931,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9968,25 +9983,25 @@
       <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="2" max="2" width="27.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -10003,7 +10018,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>461</v>
       </c>
@@ -10042,7 +10057,7 @@
       </c>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>624</v>
       </c>
@@ -10079,7 +10094,7 @@
       </c>
       <c r="M3" s="35"/>
     </row>
-    <row r="4" spans="1:13" s="23" customFormat="1">
+    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>630</v>
       </c>
@@ -10114,7 +10129,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1">
+    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>633</v>
       </c>
@@ -10151,7 +10166,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1">
+    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>656</v>
       </c>
@@ -10180,7 +10195,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1">
+    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>658</v>
       </c>
@@ -10209,7 +10224,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1">
+    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>659</v>
       </c>
@@ -10238,7 +10253,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1">
+    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>660</v>
       </c>
@@ -10267,7 +10282,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1">
+    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>662</v>
       </c>
@@ -10296,7 +10311,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1">
+    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>664</v>
       </c>
@@ -10325,7 +10340,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1">
+    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>666</v>
       </c>
@@ -10354,7 +10369,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1">
+    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>668</v>
       </c>
@@ -10383,7 +10398,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1">
+    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>670</v>
       </c>
@@ -10412,7 +10427,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1">
+    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>672</v>
       </c>
@@ -10441,7 +10456,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1">
+    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>674</v>
       </c>
@@ -10470,7 +10485,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1">
+    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>676</v>
       </c>
@@ -10499,7 +10514,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1">
+    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>678</v>
       </c>
@@ -10528,7 +10543,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1">
+    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>680</v>
       </c>
@@ -10557,7 +10572,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1">
+    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>682</v>
       </c>
@@ -10586,7 +10601,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="23" customFormat="1">
+    <row r="21" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>684</v>
       </c>
@@ -10615,7 +10630,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="23" customFormat="1">
+    <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>686</v>
       </c>
@@ -10644,7 +10659,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1">
+    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>688</v>
       </c>
@@ -10673,7 +10688,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1">
+    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>690</v>
       </c>
@@ -10702,7 +10717,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -10717,7 +10732,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -10732,7 +10747,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10747,7 +10762,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10762,202 +10777,202 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="22"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="22"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="22"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="22"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="22"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="22"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="22"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="22"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="22"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="22"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="22"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="22"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="22"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="22"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="22"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="22"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="22"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="22"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="22"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="22"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="22"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="22"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="22"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="22"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="22"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="22"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="22"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="22"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="22"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="22"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="22"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="22"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="22"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="22"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="22"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="22"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="22"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="22"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="22"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="22"/>
     </row>
   </sheetData>
@@ -10979,19 +10994,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -11010,7 +11025,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -11031,7 +11046,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -11054,7 +11069,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -11077,7 +11092,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -11100,7 +11115,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -11123,7 +11138,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -11146,7 +11161,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -11169,7 +11184,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -11192,7 +11207,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11215,7 +11230,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11234,7 +11249,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11255,7 +11270,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11278,7 +11293,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11301,7 +11316,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11324,7 +11339,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11347,7 +11362,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11370,7 +11385,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11393,7 +11408,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11416,7 +11431,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11439,7 +11454,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11458,7 +11473,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11481,7 +11496,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11504,7 +11519,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11527,7 +11542,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11550,7 +11565,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11573,7 +11588,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11596,7 +11611,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11619,7 +11634,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11642,7 +11657,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11665,7 +11680,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11684,7 +11699,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11705,7 +11720,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11728,7 +11743,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11751,7 +11766,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11774,7 +11789,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11797,7 +11812,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11820,7 +11835,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11843,7 +11858,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11866,7 +11881,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11889,7 +11904,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11908,7 +11923,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11929,7 +11944,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11952,7 +11967,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11975,7 +11990,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -11998,7 +12013,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -12021,7 +12036,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -12044,7 +12059,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -12067,7 +12082,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -12090,7 +12105,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -12113,7 +12128,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -12132,7 +12147,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -12153,7 +12168,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -12176,7 +12191,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -12199,7 +12214,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12222,7 +12237,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12245,7 +12260,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12268,7 +12283,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12291,7 +12306,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12314,7 +12329,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12337,7 +12352,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12356,7 +12371,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12377,7 +12392,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12402,7 +12417,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12425,7 +12440,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12448,7 +12463,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12471,7 +12486,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12494,7 +12509,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12517,7 +12532,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12540,7 +12555,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12563,7 +12578,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12586,7 +12601,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12605,7 +12620,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12626,7 +12641,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12649,7 +12664,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12674,7 +12689,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12697,7 +12712,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12720,7 +12735,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12743,7 +12758,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12766,7 +12781,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12789,7 +12804,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12812,7 +12827,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12835,7 +12850,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12858,7 +12873,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12881,7 +12896,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12904,7 +12919,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12923,7 +12938,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12946,7 +12961,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12969,7 +12984,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -12992,7 +13007,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -13015,7 +13030,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -13038,7 +13053,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -13061,7 +13076,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -13084,7 +13099,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -13107,7 +13122,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -13130,7 +13145,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -13153,7 +13168,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -13172,7 +13187,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -13197,7 +13212,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13216,7 +13231,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13237,7 +13252,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13262,7 +13277,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13281,7 +13296,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13304,7 +13319,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13329,7 +13344,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13352,7 +13367,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13373,7 +13388,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13392,7 +13407,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13417,7 +13432,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13440,7 +13455,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13463,7 +13478,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13486,7 +13501,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13509,7 +13524,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13532,7 +13547,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13555,7 +13570,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13574,7 +13589,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13597,7 +13612,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13620,7 +13635,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13643,7 +13658,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13662,7 +13677,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13685,7 +13700,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13708,7 +13723,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13731,7 +13746,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13754,7 +13769,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13777,7 +13792,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13800,7 +13815,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13819,7 +13834,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13844,7 +13859,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13867,7 +13882,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13890,7 +13905,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13913,7 +13928,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13936,7 +13951,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13959,7 +13974,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -13982,7 +13997,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -14005,7 +14020,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -14028,7 +14043,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -14047,7 +14062,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -14072,7 +14087,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -14093,7 +14108,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -14116,7 +14131,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -14139,7 +14154,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -14162,7 +14177,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -14185,7 +14200,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14208,7 +14223,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14231,7 +14246,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14254,7 +14269,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14277,7 +14292,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14300,7 +14315,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14323,7 +14338,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14346,7 +14361,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14369,7 +14384,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14388,7 +14403,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14411,7 +14426,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14430,7 +14445,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14453,7 +14468,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14476,7 +14491,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14495,7 +14510,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14520,7 +14535,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14543,7 +14558,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14566,7 +14581,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14589,7 +14604,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14612,7 +14627,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14635,7 +14650,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14658,7 +14673,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14681,7 +14696,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14704,7 +14719,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14727,7 +14742,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14746,7 +14761,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14771,7 +14786,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14794,7 +14809,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14817,7 +14832,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14840,7 +14855,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14863,7 +14878,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14886,7 +14901,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14909,7 +14924,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14932,7 +14947,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14955,7 +14970,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14978,7 +14993,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -14997,7 +15012,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -15020,7 +15035,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -15043,7 +15058,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -15066,7 +15081,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -15089,7 +15104,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -15108,7 +15123,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -15131,7 +15146,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -15154,7 +15169,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -15177,7 +15192,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -15200,7 +15215,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15219,7 +15234,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15240,7 +15255,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15263,7 +15278,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15282,7 +15297,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15305,7 +15320,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15330,7 +15345,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15351,7 +15366,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15376,7 +15391,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15401,7 +15416,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15420,7 +15435,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15445,7 +15460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15468,7 +15483,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15491,7 +15506,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15514,7 +15529,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15537,7 +15552,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15560,7 +15575,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15583,7 +15598,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15606,7 +15621,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15629,7 +15644,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15648,7 +15663,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15673,7 +15688,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15696,7 +15711,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15719,7 +15734,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15742,7 +15757,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15765,7 +15780,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15788,7 +15803,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15811,7 +15826,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15834,7 +15849,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15857,7 +15872,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15876,7 +15891,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15897,7 +15912,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15920,7 +15935,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15943,7 +15958,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15966,7 +15981,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -15989,7 +16004,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -16012,7 +16027,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -16035,7 +16050,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -16058,7 +16073,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -16081,7 +16096,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -16104,7 +16119,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -16127,7 +16142,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -16150,7 +16165,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -16173,7 +16188,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -16196,7 +16211,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16219,7 +16234,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16242,7 +16257,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16261,7 +16276,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16282,7 +16297,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16305,7 +16320,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16328,7 +16343,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16351,7 +16366,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16374,7 +16389,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16397,7 +16412,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16420,7 +16435,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16443,7 +16458,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16466,7 +16481,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16489,7 +16504,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16512,7 +16527,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16535,7 +16550,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16558,7 +16573,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16581,7 +16596,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16604,7 +16619,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16627,7 +16642,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16646,7 +16661,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16671,7 +16686,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16694,7 +16709,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16717,7 +16732,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16740,7 +16755,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16763,7 +16778,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16782,7 +16797,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16807,7 +16822,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16830,7 +16845,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16849,7 +16864,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16868,7 +16883,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16887,7 +16902,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16908,7 +16923,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16931,7 +16946,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16954,7 +16969,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16977,7 +16992,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -17000,7 +17015,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -17023,7 +17038,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -17046,7 +17061,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -17069,7 +17084,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -17092,7 +17107,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -17115,7 +17130,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -17138,7 +17153,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -17157,7 +17172,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -17180,7 +17195,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -17199,7 +17214,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17224,7 +17239,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17247,7 +17262,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17270,7 +17285,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17293,7 +17308,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17316,7 +17331,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17339,7 +17354,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17362,7 +17377,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17385,7 +17400,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17408,7 +17423,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17431,7 +17446,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17454,7 +17469,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17473,7 +17488,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17496,7 +17511,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17515,7 +17530,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17536,7 +17551,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17555,7 +17570,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17576,7 +17591,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17595,7 +17610,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17616,7 +17631,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17635,7 +17650,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17658,7 +17673,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17677,7 +17692,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17702,7 +17717,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17725,7 +17740,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17748,7 +17763,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17771,7 +17786,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17794,7 +17809,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17817,7 +17832,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17840,7 +17855,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17863,7 +17878,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17886,7 +17901,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17905,7 +17920,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17928,7 +17943,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17951,7 +17966,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17974,7 +17989,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -17997,7 +18012,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -18016,7 +18031,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -18039,7 +18054,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -18062,7 +18077,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -18087,7 +18102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -18106,7 +18121,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -18131,7 +18146,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -18154,7 +18169,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -18173,7 +18188,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -18194,7 +18209,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18215,7 +18230,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18238,7 +18253,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18257,7 +18272,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18276,7 +18291,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18301,7 +18316,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18326,7 +18341,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18340,7 +18355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18363,7 +18378,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18383,7 +18398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18403,7 +18418,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18423,7 +18438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18440,7 +18455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18463,7 +18478,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18486,7 +18501,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18500,7 +18515,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18523,7 +18538,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18546,7 +18561,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18566,7 +18581,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18586,7 +18601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18603,7 +18618,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18629,7 +18644,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18658,7 +18673,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18697,7 +18712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18711,7 +18726,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18731,7 +18746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18745,7 +18760,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18765,7 +18780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18785,7 +18800,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18805,7 +18820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18825,7 +18840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18845,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18865,7 +18880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18885,7 +18900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18905,7 +18920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18925,7 +18940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18939,7 +18954,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18959,7 +18974,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18979,7 +18994,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18995,7 +19010,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19021,7 +19036,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19062,7 +19077,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19076,7 +19091,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19096,7 +19111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19110,7 +19125,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19143,23 +19158,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A11:XFD12"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19176,7 +19191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1">
+    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>639</v>
       </c>
@@ -19193,7 +19208,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="22" customFormat="1">
+    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>591</v>
       </c>
@@ -19210,7 +19225,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="22" customFormat="1">
+    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>593</v>
       </c>
@@ -19227,7 +19242,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="22" customFormat="1">
+    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>595</v>
       </c>
@@ -19244,7 +19259,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="22" customFormat="1">
+    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>597</v>
       </c>
@@ -19261,7 +19276,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1">
+    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>599</v>
       </c>
@@ -19278,7 +19293,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1">
+    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>440</v>
       </c>
@@ -19295,7 +19310,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="22" customFormat="1">
+    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>602</v>
       </c>
@@ -19312,7 +19327,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>604</v>
       </c>
@@ -19329,9 +19344,9 @@
         <v>715</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="22" customFormat="1"/>
-    <row r="12" spans="1:7" s="22" customFormat="1"/>
-    <row r="13" spans="1:7">
+    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>571</v>
       </c>
@@ -19345,7 +19360,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>456</v>
       </c>
@@ -19359,7 +19374,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>454</v>
       </c>
@@ -19370,8 +19385,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1"/>
-    <row r="18" spans="1:29">
+    <row r="16" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>550</v>
       </c>
@@ -19404,8 +19419,13 @@
       <c r="AA18" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>551</v>
       </c>
@@ -19463,8 +19483,17 @@
       <c r="AC19" s="22" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="AE19" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="22" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -19513,8 +19542,17 @@
       <c r="W20" s="22" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="22" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>544</v>
       </c>
@@ -19546,7 +19584,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>553</v>
       </c>
@@ -19578,7 +19616,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19607,7 +19645,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>554</v>
       </c>
@@ -19639,7 +19677,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>736</v>
       </c>
@@ -19671,7 +19709,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>731</v>
       </c>
@@ -19691,7 +19729,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>732</v>
       </c>
@@ -19714,7 +19752,10 @@
         <v>575</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>750</v>
+      </c>
       <c r="L28" s="1" t="s">
         <v>560</v>
       </c>
@@ -19734,7 +19775,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="L29" s="1" t="s">
         <v>541</v>
       </c>
@@ -19742,7 +19783,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="L30" s="1" t="s">
         <v>543</v>
       </c>
@@ -19753,7 +19794,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="L31" s="22" t="s">
         <v>734</v>
       </c>
@@ -19764,7 +19805,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="L32" t="s">
         <v>739</v>
       </c>

--- a/projects/template.xlsx
+++ b/projects/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="48240" windowHeight="16440" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$14:$C$15</definedName>
     <definedName name="Workflow">Lookups!$E$14:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2286,9 +2286,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>1.11.0-rc3</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -2305,6 +2302,9 @@
   </si>
   <si>
     <t>(TRUE/FALSE) If in_measure_combinations are TRUE, sets if static values be included in combinations</t>
+  </si>
+  <si>
+    <t>1.12.4</t>
   </si>
 </sst>
 </file>
@@ -5901,21 +5901,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="33.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="61.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12"/>
       <c r="B1" s="20"/>
       <c r="C1" s="12"/>
@@ -5925,7 +5925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>435</v>
       </c>
@@ -5935,7 +5935,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="1" t="s">
         <v>458</v>
       </c>
@@ -5957,29 +5957,29 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="42">
       <c r="A5" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A10" s="23" t="s">
         <v>716</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="7" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -6068,7 +6068,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>464</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>465</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>468</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
@@ -6167,12 +6167,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="23" customFormat="1">
       <c r="B23" s="18"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A24" s="6" t="s">
         <v>451</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v>Sample Method</v>
@@ -6206,7 +6206,7 @@
       <c r="D25" s="27"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28">
       <c r="A26" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v>Number of Samples</v>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6240,7 +6240,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="23" customFormat="1">
       <c r="A28" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="23" customFormat="1">
       <c r="A29" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="23" customFormat="1">
       <c r="A30" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="23" customFormat="1">
       <c r="A31" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="23" customFormat="1">
       <c r="A32" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="23" customFormat="1">
       <c r="A33" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="D33" s="27"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6346,7 +6346,7 @@
       <c r="D34" s="27"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="23" customFormat="1">
       <c r="A35" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="D35" s="27"/>
     </row>
-    <row r="36" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="23" customFormat="1">
       <c r="A36" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6377,7 +6377,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="23" customFormat="1">
       <c r="A37" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6393,7 +6393,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="23" customFormat="1">
       <c r="A38" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6409,7 +6409,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A39" s="6" t="s">
         <v>33</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A42" s="6" t="s">
         <v>30</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="28">
       <c r="A43" s="23" t="s">
         <v>32</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A45" s="6" t="s">
         <v>35</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A48" s="6" t="s">
         <v>719</v>
       </c>
@@ -6498,17 +6498,17 @@
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="2" customFormat="1">
       <c r="B49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="23" customFormat="1">
       <c r="B50" s="18"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A51" s="6" t="s">
         <v>723</v>
       </c>
@@ -6559,33 +6559,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="7.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="1"/>
-    <col min="17" max="17" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="1"/>
-    <col min="20" max="20" width="46.140625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.42578125" style="1"/>
-    <col min="24" max="24" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="1"/>
+    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="1"/>
+    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="1"/>
+    <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6621,7 +6621,7 @@
       <c r="Y1" s="52"/>
       <c r="Z1" s="52"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="29" customFormat="1">
       <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
@@ -6773,7 +6773,7 @@
       <c r="Y4" s="39"/>
       <c r="Z4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="22" customFormat="1">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6813,7 +6813,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="28" customFormat="1">
       <c r="A6" s="42"/>
       <c r="B6" s="42" t="s">
         <v>22</v>
@@ -6861,7 +6861,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="28" customFormat="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
@@ -6899,7 +6899,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="22" customFormat="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6937,7 +6937,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="22" customFormat="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6975,7 +6975,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="22" customFormat="1">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -7013,7 +7013,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="22" customFormat="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -7051,7 +7051,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="29" customFormat="1">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -7089,7 +7089,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="28" customFormat="1">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -7127,7 +7127,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="22" customFormat="1">
       <c r="A14" s="39" t="b">
         <v>1</v>
       </c>
@@ -7165,7 +7165,7 @@
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
     </row>
-    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="22" customFormat="1">
       <c r="A15" s="42"/>
       <c r="B15" s="42" t="s">
         <v>22</v>
@@ -7213,7 +7213,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
@@ -7251,7 +7251,7 @@
       <c r="Y16" s="39"/>
       <c r="Z16" s="39"/>
     </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
         <v>22</v>
@@ -7299,7 +7299,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7337,7 +7337,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7375,7 +7375,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7413,7 +7413,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
     </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A22" s="46"/>
       <c r="B22" s="46" t="s">
         <v>22</v>
@@ -7503,7 +7503,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7541,7 +7541,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7579,7 +7579,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7617,7 +7617,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
     </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A27" s="46"/>
       <c r="B27" s="46" t="s">
         <v>22</v>
@@ -7703,7 +7703,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7741,7 +7741,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7781,7 +7781,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
@@ -7819,7 +7819,7 @@
       <c r="Y30" s="39"/>
       <c r="Z30" s="39"/>
     </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A31" s="46"/>
       <c r="B31" s="46" t="s">
         <v>22</v>
@@ -7867,7 +7867,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7905,7 +7905,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7945,7 +7945,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" s="28" customFormat="1">
       <c r="A34" s="39" t="b">
         <v>1</v>
       </c>
@@ -7983,7 +7983,7 @@
       <c r="Y34" s="39"/>
       <c r="Z34" s="39"/>
     </row>
-    <row r="35" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" s="22" customFormat="1">
       <c r="A35" s="42"/>
       <c r="B35" s="42" t="s">
         <v>22</v>
@@ -8033,7 +8033,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" s="22" customFormat="1">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
@@ -8073,7 +8073,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" s="22" customFormat="1">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -8111,7 +8111,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" s="29" customFormat="1">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -8149,7 +8149,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A39" s="47" t="b">
         <v>1</v>
       </c>
@@ -8187,7 +8187,7 @@
       <c r="Y39" s="29"/>
       <c r="Z39" s="29"/>
     </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A40" s="48"/>
       <c r="B40" s="48" t="s">
         <v>22</v>
@@ -8238,7 +8238,7 @@
       <c r="Y40" s="50"/>
       <c r="Z40" s="50"/>
     </row>
-    <row r="41" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A41" s="48"/>
       <c r="B41" s="48" t="s">
         <v>22</v>
@@ -8289,7 +8289,7 @@
       <c r="Y41" s="50"/>
       <c r="Z41" s="50"/>
     </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -8312,7 +8312,7 @@
       <c r="J42" s="10"/>
       <c r="P42" s="23"/>
     </row>
-    <row r="43" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" s="29" customFormat="1">
       <c r="A43" s="29" t="b">
         <v>1</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="28" customFormat="1">
       <c r="A44" s="50"/>
       <c r="B44" s="50" t="s">
         <v>22</v>
@@ -8380,7 +8380,7 @@
       <c r="Y44" s="50"/>
       <c r="Z44" s="50"/>
     </row>
-    <row r="45" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="22" customFormat="1">
       <c r="A45" s="29" t="b">
         <v>1</v>
       </c>
@@ -8418,7 +8418,7 @@
       <c r="Y45" s="29"/>
       <c r="Z45" s="29"/>
     </row>
-    <row r="46" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="22" customFormat="1">
       <c r="A46" s="50"/>
       <c r="B46" s="50" t="s">
         <v>22</v>
@@ -8469,7 +8469,7 @@
       <c r="Y46" s="50"/>
       <c r="Z46" s="50"/>
     </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A47" s="45" t="b">
         <v>1</v>
       </c>
@@ -8507,7 +8507,7 @@
       <c r="Y47" s="39"/>
       <c r="Z47" s="39"/>
     </row>
-    <row r="48" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -8547,7 +8547,7 @@
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -8587,7 +8587,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8615,7 +8615,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" customFormat="1" ht="15">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8643,7 +8643,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" customFormat="1" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8671,7 +8671,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" customFormat="1" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8699,7 +8699,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" customFormat="1" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8727,7 +8727,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" customFormat="1" ht="15">
       <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8755,7 +8755,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8783,7 +8783,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" customFormat="1" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8811,7 +8811,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15">
       <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -8839,7 +8839,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8867,7 +8867,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8895,7 +8895,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="15">
       <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8923,7 +8923,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8951,7 +8951,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8979,7 +8979,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15">
       <c r="A64" s="15"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -9007,7 +9007,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -9035,7 +9035,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -9063,7 +9063,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15">
       <c r="A67" s="15"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -9091,7 +9091,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -9119,7 +9119,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -9147,7 +9147,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -9175,7 +9175,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -9203,7 +9203,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -9231,7 +9231,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -9259,7 +9259,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -9287,7 +9287,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9315,7 +9315,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9343,7 +9343,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9371,7 +9371,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9399,7 +9399,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="15">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9427,7 +9427,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9455,7 +9455,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9483,7 +9483,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9511,7 +9511,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9539,7 +9539,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9567,7 +9567,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9595,7 +9595,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="15">
       <c r="A86" s="10"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -9623,7 +9623,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9651,7 +9651,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9679,7 +9679,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9707,7 +9707,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -9735,7 +9735,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9763,7 +9763,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9791,7 +9791,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9819,7 +9819,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9847,7 +9847,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9875,7 +9875,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9903,7 +9903,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9931,7 +9931,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9983,25 +9983,25 @@
       <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="18">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -10018,7 +10018,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
       <c r="A2" s="35" t="s">
         <v>461</v>
       </c>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
       <c r="A3" s="35" t="s">
         <v>624</v>
       </c>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="M3" s="35"/>
     </row>
-    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="23" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>630</v>
       </c>
@@ -10129,7 +10129,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="23" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>633</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
         <v>656</v>
       </c>
@@ -10195,7 +10195,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
         <v>658</v>
       </c>
@@ -10224,7 +10224,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
         <v>659</v>
       </c>
@@ -10253,7 +10253,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
         <v>660</v>
       </c>
@@ -10282,7 +10282,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
         <v>662</v>
       </c>
@@ -10311,7 +10311,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
         <v>664</v>
       </c>
@@ -10340,7 +10340,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
         <v>666</v>
       </c>
@@ -10369,7 +10369,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
         <v>668</v>
       </c>
@@ -10398,7 +10398,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
         <v>670</v>
       </c>
@@ -10427,7 +10427,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
         <v>672</v>
       </c>
@@ -10456,7 +10456,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
         <v>674</v>
       </c>
@@ -10485,7 +10485,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
         <v>676</v>
       </c>
@@ -10514,7 +10514,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
         <v>678</v>
       </c>
@@ -10543,7 +10543,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
         <v>680</v>
       </c>
@@ -10572,7 +10572,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
         <v>682</v>
       </c>
@@ -10601,7 +10601,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="23" customFormat="1">
       <c r="A21" s="15" t="s">
         <v>684</v>
       </c>
@@ -10630,7 +10630,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="23" customFormat="1">
       <c r="A22" s="15" t="s">
         <v>686</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
         <v>688</v>
       </c>
@@ -10688,7 +10688,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
         <v>690</v>
       </c>
@@ -10717,7 +10717,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -10732,7 +10732,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -10747,7 +10747,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10762,7 +10762,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10777,202 +10777,202 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34" s="22"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35" s="22"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2">
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2">
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39" s="22"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" s="22"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2">
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42" s="22"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43" s="22"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2">
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2">
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" s="22"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" s="22"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="22"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2">
       <c r="B52" s="22"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53" s="22"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2">
       <c r="B55" s="22"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2">
       <c r="B56" s="22"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2">
       <c r="B57" s="22"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2">
       <c r="B58" s="22"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59" s="22"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2">
       <c r="B61" s="22"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2">
       <c r="B63" s="22"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2">
       <c r="B64" s="22"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="22"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="22"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="22"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" s="22"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69" s="22"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="22"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" s="22"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="22"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="22"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" s="22"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75" s="22"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76" s="22"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" s="22"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78" s="22"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79" s="22"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80" s="22"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81" s="22"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84" s="22"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85" s="22"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90" s="22"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94" s="22"/>
     </row>
   </sheetData>
@@ -10994,19 +10994,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -11046,7 +11046,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -11069,7 +11069,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -11092,7 +11092,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -11138,7 +11138,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -11184,7 +11184,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11249,7 +11249,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11270,7 +11270,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11293,7 +11293,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11385,7 +11385,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11473,7 +11473,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11496,7 +11496,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11519,7 +11519,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11542,7 +11542,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11634,7 +11634,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11657,7 +11657,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11680,7 +11680,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11699,7 +11699,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11720,7 +11720,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11743,7 +11743,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11812,7 +11812,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11835,7 +11835,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11904,7 +11904,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11923,7 +11923,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11944,7 +11944,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11990,7 +11990,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -12128,7 +12128,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -12147,7 +12147,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -12168,7 +12168,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -12214,7 +12214,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12237,7 +12237,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12260,7 +12260,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12283,7 +12283,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12306,7 +12306,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12352,7 +12352,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12371,7 +12371,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12392,7 +12392,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12417,7 +12417,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12440,7 +12440,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12463,7 +12463,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12486,7 +12486,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12509,7 +12509,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12532,7 +12532,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12620,7 +12620,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12641,7 +12641,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12664,7 +12664,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12689,7 +12689,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12758,7 +12758,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12850,7 +12850,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12896,7 +12896,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12938,7 +12938,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12961,7 +12961,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12984,7 +12984,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -13007,7 +13007,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -13030,7 +13030,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -13053,7 +13053,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -13076,7 +13076,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -13145,7 +13145,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -13168,7 +13168,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -13187,7 +13187,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -13212,7 +13212,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13231,7 +13231,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13252,7 +13252,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13277,7 +13277,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13296,7 +13296,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13319,7 +13319,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13344,7 +13344,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13367,7 +13367,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13388,7 +13388,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13407,7 +13407,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13432,7 +13432,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13478,7 +13478,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13547,7 +13547,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13570,7 +13570,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13589,7 +13589,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13612,7 +13612,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13677,7 +13677,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13723,7 +13723,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13746,7 +13746,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13769,7 +13769,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13834,7 +13834,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13859,7 +13859,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13882,7 +13882,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13905,7 +13905,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13928,7 +13928,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13974,7 +13974,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -14062,7 +14062,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -14087,7 +14087,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -14108,7 +14108,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -14131,7 +14131,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -14177,7 +14177,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -14200,7 +14200,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14246,7 +14246,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14269,7 +14269,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14292,7 +14292,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14315,7 +14315,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14338,7 +14338,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14361,7 +14361,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14384,7 +14384,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14403,7 +14403,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14426,7 +14426,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14445,7 +14445,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14468,7 +14468,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14510,7 +14510,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14535,7 +14535,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14581,7 +14581,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14627,7 +14627,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14650,7 +14650,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14696,7 +14696,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14719,7 +14719,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14742,7 +14742,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14761,7 +14761,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14786,7 +14786,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14832,7 +14832,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14855,7 +14855,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14878,7 +14878,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14901,7 +14901,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14924,7 +14924,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14947,7 +14947,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14970,7 +14970,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -15012,7 +15012,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -15035,7 +15035,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -15058,7 +15058,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -15081,7 +15081,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -15104,7 +15104,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -15123,7 +15123,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -15146,7 +15146,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15234,7 +15234,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15255,7 +15255,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15278,7 +15278,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15297,7 +15297,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15320,7 +15320,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15345,7 +15345,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15366,7 +15366,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15391,7 +15391,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15416,7 +15416,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15435,7 +15435,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15460,7 +15460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15483,7 +15483,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15506,7 +15506,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15552,7 +15552,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15575,7 +15575,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15644,7 +15644,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15663,7 +15663,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15688,7 +15688,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15711,7 +15711,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15734,7 +15734,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15757,7 +15757,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15780,7 +15780,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15803,7 +15803,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15826,7 +15826,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15849,7 +15849,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15891,7 +15891,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15912,7 +15912,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15935,7 +15935,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15981,7 +15981,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -16004,7 +16004,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -16027,7 +16027,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -16050,7 +16050,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -16096,7 +16096,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -16142,7 +16142,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -16165,7 +16165,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -16211,7 +16211,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16234,7 +16234,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16257,7 +16257,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16276,7 +16276,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16297,7 +16297,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16320,7 +16320,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16343,7 +16343,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16366,7 +16366,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16389,7 +16389,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16412,7 +16412,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16458,7 +16458,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16527,7 +16527,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16550,7 +16550,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16573,7 +16573,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16596,7 +16596,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16619,7 +16619,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16642,7 +16642,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16661,7 +16661,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16686,7 +16686,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16709,7 +16709,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16778,7 +16778,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16797,7 +16797,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16822,7 +16822,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16845,7 +16845,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16864,7 +16864,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16883,7 +16883,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16902,7 +16902,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16923,7 +16923,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16946,7 +16946,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16992,7 +16992,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -17038,7 +17038,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -17084,7 +17084,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -17107,7 +17107,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -17153,7 +17153,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -17172,7 +17172,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -17214,7 +17214,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17239,7 +17239,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17262,7 +17262,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17285,7 +17285,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17308,7 +17308,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17331,7 +17331,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17354,7 +17354,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17377,7 +17377,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17400,7 +17400,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17423,7 +17423,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17446,7 +17446,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17469,7 +17469,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17488,7 +17488,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17511,7 +17511,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17530,7 +17530,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17551,7 +17551,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17570,7 +17570,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17591,7 +17591,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17610,7 +17610,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17631,7 +17631,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17650,7 +17650,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17673,7 +17673,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17692,7 +17692,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17717,7 +17717,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17763,7 +17763,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17786,7 +17786,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17809,7 +17809,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17832,7 +17832,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17878,7 +17878,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17901,7 +17901,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17920,7 +17920,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17989,7 +17989,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -18012,7 +18012,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -18031,7 +18031,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -18054,7 +18054,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -18077,7 +18077,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -18102,7 +18102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -18121,7 +18121,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -18146,7 +18146,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -18188,7 +18188,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -18209,7 +18209,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18230,7 +18230,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18253,7 +18253,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18272,7 +18272,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18291,7 +18291,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18316,7 +18316,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18341,7 +18341,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18438,7 +18438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18455,7 +18455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18561,7 +18561,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18644,7 +18644,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18673,7 +18673,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18712,7 +18712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18726,7 +18726,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18900,7 +18900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18920,7 +18920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19010,7 +19010,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19036,7 +19036,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19077,7 +19077,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19125,7 +19125,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19164,17 +19164,17 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>639</v>
       </c>
@@ -19208,7 +19208,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="22" customFormat="1">
       <c r="A3" s="22" t="s">
         <v>591</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="22" customFormat="1">
       <c r="A4" s="22" t="s">
         <v>593</v>
       </c>
@@ -19242,7 +19242,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="22" customFormat="1">
       <c r="A5" s="22" t="s">
         <v>595</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="22" customFormat="1">
       <c r="A6" s="22" t="s">
         <v>597</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="22" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>599</v>
       </c>
@@ -19293,7 +19293,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="22" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>440</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="22" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>602</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="22" t="s">
         <v>604</v>
       </c>
@@ -19344,9 +19344,9 @@
         <v>715</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="22" customFormat="1"/>
+    <row r="12" spans="1:7" s="22" customFormat="1"/>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>571</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>456</v>
       </c>
@@ -19374,7 +19374,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>454</v>
       </c>
@@ -19385,8 +19385,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="22" customFormat="1"/>
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
         <v>550</v>
       </c>
@@ -19420,12 +19420,12 @@
         <v>732</v>
       </c>
       <c r="AD18" s="22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AE18" s="22"/>
       <c r="AF18" s="22"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
         <v>551</v>
       </c>
@@ -19484,16 +19484,16 @@
         <v>590</v>
       </c>
       <c r="AD19" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AE19" s="22" t="b">
         <v>1</v>
       </c>
       <c r="AF19" s="22" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -19543,16 +19543,16 @@
         <v>737</v>
       </c>
       <c r="AD20" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AE20" s="22" t="b">
         <v>1</v>
       </c>
       <c r="AF20" s="22" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
         <v>544</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
         <v>553</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
         <v>554</v>
       </c>
@@ -19677,7 +19677,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
         <v>736</v>
       </c>
@@ -19709,7 +19709,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
         <v>731</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
         <v>732</v>
       </c>
@@ -19752,9 +19752,9 @@
         <v>575</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="A28" s="22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>560</v>
@@ -19775,7 +19775,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="L29" s="1" t="s">
         <v>541</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="L30" s="1" t="s">
         <v>543</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="L31" s="22" t="s">
         <v>734</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="L32" t="s">
         <v>739</v>
       </c>

--- a/projects/template.xlsx
+++ b/projects/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$14:$C$15</definedName>
     <definedName name="Workflow">Lookups!$E$14:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2304,7 +2304,7 @@
     <t>(TRUE/FALSE) If in_measure_combinations are TRUE, sets if static values be included in combinations</t>
   </si>
   <si>
-    <t>1.12.4</t>
+    <t>1.13.4</t>
   </si>
 </sst>
 </file>
@@ -5902,20 +5902,20 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="20"/>
       <c r="C1" s="12"/>
@@ -5925,7 +5925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>435</v>
       </c>
@@ -5935,7 +5935,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>458</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42">
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>471</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46" customHeight="1">
+    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>472</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>716</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -6068,7 +6068,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>464</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>465</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>468</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
@@ -6167,12 +6167,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="23" customFormat="1">
+    <row r="23" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>451</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v>Sample Method</v>
@@ -6206,7 +6206,7 @@
       <c r="D25" s="27"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:6" ht="28">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v>Number of Samples</v>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6240,7 +6240,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:6" s="23" customFormat="1">
+    <row r="28" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:6" s="23" customFormat="1">
+    <row r="29" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1">
+    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="1:6" s="23" customFormat="1">
+    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="1:6" s="23" customFormat="1">
+    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:6" s="23" customFormat="1">
+    <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="D33" s="27"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6346,7 +6346,7 @@
       <c r="D34" s="27"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="1:6" s="23" customFormat="1">
+    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="D35" s="27"/>
     </row>
-    <row r="36" spans="1:6" s="23" customFormat="1">
+    <row r="36" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6377,7 +6377,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="23" customFormat="1">
+    <row r="37" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6393,7 +6393,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:6" s="23" customFormat="1">
+    <row r="38" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AF$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))=0,"",INDEX(Lookups!$C$19:$AF$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$28,0)-2))</f>
         <v/>
@@ -6409,7 +6409,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>33</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>30</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28">
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
         <v>32</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>35</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="48" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>719</v>
       </c>
@@ -6498,17 +6498,17 @@
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" s="23" customFormat="1">
+    <row r="50" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="18"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>723</v>
       </c>
@@ -6559,33 +6559,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="23" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="1"/>
-    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="1"/>
+    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="1"/>
-    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.5" style="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.5" style="1"/>
+    <col min="25" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6621,7 +6621,7 @@
       <c r="Y1" s="52"/>
       <c r="Z1" s="52"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1">
+    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
@@ -6773,7 +6773,7 @@
       <c r="Y4" s="39"/>
       <c r="Z4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="22" customFormat="1">
+    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6813,7 +6813,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1">
+    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="42" t="s">
         <v>22</v>
@@ -6861,7 +6861,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" s="28" customFormat="1">
+    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
@@ -6899,7 +6899,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1">
+    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6937,7 +6937,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1">
+    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6975,7 +6975,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1">
+    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -7013,7 +7013,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1">
+    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -7051,7 +7051,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1">
+    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -7089,7 +7089,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1">
+    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -7127,7 +7127,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1">
+    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="b">
         <v>1</v>
       </c>
@@ -7165,7 +7165,7 @@
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
     </row>
-    <row r="15" spans="1:26" s="22" customFormat="1">
+    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
       <c r="B15" s="42" t="s">
         <v>22</v>
@@ -7213,7 +7213,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
@@ -7251,7 +7251,7 @@
       <c r="Y16" s="39"/>
       <c r="Z16" s="39"/>
     </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="17" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
         <v>22</v>
@@ -7299,7 +7299,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="18" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7337,7 +7337,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="19" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7375,7 +7375,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="20" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7413,7 +7413,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="21" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
     </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="22" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
       <c r="B22" s="46" t="s">
         <v>22</v>
@@ -7503,7 +7503,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="23" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7541,7 +7541,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="24" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7579,7 +7579,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="25" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7617,7 +7617,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="26" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
     </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" s="46" t="s">
         <v>22</v>
@@ -7703,7 +7703,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="28" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7741,7 +7741,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="29" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7781,7 +7781,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="30" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
@@ -7819,7 +7819,7 @@
       <c r="Y30" s="39"/>
       <c r="Z30" s="39"/>
     </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="31" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" s="46" t="s">
         <v>22</v>
@@ -7867,7 +7867,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="32" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7905,7 +7905,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="33" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7945,7 +7945,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="28" customFormat="1">
+    <row r="34" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="b">
         <v>1</v>
       </c>
@@ -7983,7 +7983,7 @@
       <c r="Y34" s="39"/>
       <c r="Z34" s="39"/>
     </row>
-    <row r="35" spans="1:26" s="22" customFormat="1">
+    <row r="35" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42"/>
       <c r="B35" s="42" t="s">
         <v>22</v>
@@ -8033,7 +8033,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" s="22" customFormat="1">
+    <row r="36" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
@@ -8073,7 +8073,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="22" customFormat="1">
+    <row r="37" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -8111,7 +8111,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="29" customFormat="1">
+    <row r="38" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -8149,7 +8149,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="39" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="b">
         <v>1</v>
       </c>
@@ -8187,7 +8187,7 @@
       <c r="Y39" s="29"/>
       <c r="Z39" s="29"/>
     </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="40" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="48"/>
       <c r="B40" s="48" t="s">
         <v>22</v>
@@ -8238,7 +8238,7 @@
       <c r="Y40" s="50"/>
       <c r="Z40" s="50"/>
     </row>
-    <row r="41" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="41" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="48"/>
       <c r="B41" s="48" t="s">
         <v>22</v>
@@ -8289,7 +8289,7 @@
       <c r="Y41" s="50"/>
       <c r="Z41" s="50"/>
     </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="42" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -8312,7 +8312,7 @@
       <c r="J42" s="10"/>
       <c r="P42" s="23"/>
     </row>
-    <row r="43" spans="1:26" s="29" customFormat="1">
+    <row r="43" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="b">
         <v>1</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="28" customFormat="1">
+    <row r="44" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="50"/>
       <c r="B44" s="50" t="s">
         <v>22</v>
@@ -8380,7 +8380,7 @@
       <c r="Y44" s="50"/>
       <c r="Z44" s="50"/>
     </row>
-    <row r="45" spans="1:26" s="22" customFormat="1">
+    <row r="45" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="b">
         <v>1</v>
       </c>
@@ -8418,7 +8418,7 @@
       <c r="Y45" s="29"/>
       <c r="Z45" s="29"/>
     </row>
-    <row r="46" spans="1:26" s="22" customFormat="1">
+    <row r="46" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="50"/>
       <c r="B46" s="50" t="s">
         <v>22</v>
@@ -8469,7 +8469,7 @@
       <c r="Y46" s="50"/>
       <c r="Z46" s="50"/>
     </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="47" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="b">
         <v>1</v>
       </c>
@@ -8507,7 +8507,7 @@
       <c r="Y47" s="39"/>
       <c r="Z47" s="39"/>
     </row>
-    <row r="48" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="48" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -8547,7 +8547,7 @@
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -8587,7 +8587,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8615,7 +8615,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15">
+    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8643,7 +8643,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15">
+    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8671,7 +8671,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15">
+    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8699,7 +8699,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15">
+    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8727,7 +8727,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15">
+    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8755,7 +8755,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15">
+    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8783,7 +8783,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15">
+    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8811,7 +8811,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15">
+    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -8839,7 +8839,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15">
+    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8867,7 +8867,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15">
+    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8895,7 +8895,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15">
+    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8923,7 +8923,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15">
+    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8951,7 +8951,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15">
+    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8979,7 +8979,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15">
+    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -9007,7 +9007,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15">
+    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -9035,7 +9035,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15">
+    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -9063,7 +9063,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15">
+    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -9091,7 +9091,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15">
+    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -9119,7 +9119,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15">
+    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -9147,7 +9147,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -9175,7 +9175,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -9203,7 +9203,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -9231,7 +9231,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -9259,7 +9259,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -9287,7 +9287,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9315,7 +9315,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9343,7 +9343,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9371,7 +9371,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9399,7 +9399,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" ht="15">
+    <row r="79" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9427,7 +9427,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9455,7 +9455,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9483,7 +9483,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9511,7 +9511,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9539,7 +9539,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9567,7 +9567,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9595,7 +9595,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" ht="15">
+    <row r="86" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -9623,7 +9623,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9651,7 +9651,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9679,7 +9679,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9707,7 +9707,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -9735,7 +9735,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9763,7 +9763,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9791,7 +9791,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9819,7 +9819,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9847,7 +9847,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9875,7 +9875,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9903,7 +9903,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9931,7 +9931,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9983,25 +9983,25 @@
       <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="7.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -10018,7 +10018,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>461</v>
       </c>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>624</v>
       </c>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="M3" s="35"/>
     </row>
-    <row r="4" spans="1:13" s="23" customFormat="1">
+    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>630</v>
       </c>
@@ -10129,7 +10129,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1">
+    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>633</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1">
+    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>656</v>
       </c>
@@ -10195,7 +10195,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1">
+    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>658</v>
       </c>
@@ -10224,7 +10224,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1">
+    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>659</v>
       </c>
@@ -10253,7 +10253,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1">
+    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>660</v>
       </c>
@@ -10282,7 +10282,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1">
+    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>662</v>
       </c>
@@ -10311,7 +10311,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1">
+    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>664</v>
       </c>
@@ -10340,7 +10340,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1">
+    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>666</v>
       </c>
@@ -10369,7 +10369,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1">
+    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>668</v>
       </c>
@@ -10398,7 +10398,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1">
+    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>670</v>
       </c>
@@ -10427,7 +10427,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1">
+    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>672</v>
       </c>
@@ -10456,7 +10456,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1">
+    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>674</v>
       </c>
@@ -10485,7 +10485,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1">
+    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>676</v>
       </c>
@@ -10514,7 +10514,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1">
+    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>678</v>
       </c>
@@ -10543,7 +10543,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1">
+    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>680</v>
       </c>
@@ -10572,7 +10572,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1">
+    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>682</v>
       </c>
@@ -10601,7 +10601,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="23" customFormat="1">
+    <row r="21" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>684</v>
       </c>
@@ -10630,7 +10630,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="23" customFormat="1">
+    <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>686</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1">
+    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>688</v>
       </c>
@@ -10688,7 +10688,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1">
+    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>690</v>
       </c>
@@ -10717,7 +10717,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -10732,7 +10732,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -10747,7 +10747,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10762,7 +10762,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10777,202 +10777,202 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="22"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="22"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="22"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="22"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="22"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="22"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="22"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="22"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="22"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="22"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="22"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="22"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="22"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="22"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="22"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="22"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="22"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="22"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="22"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="22"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="22"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="22"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="22"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="22"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="22"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="22"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="22"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="22"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="22"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="22"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="22"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="22"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="22"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="22"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="22"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="22"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="22"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="22"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="22"/>
     </row>
   </sheetData>
@@ -10994,19 +10994,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -11046,7 +11046,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -11069,7 +11069,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -11092,7 +11092,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -11138,7 +11138,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -11184,7 +11184,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11249,7 +11249,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11270,7 +11270,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11293,7 +11293,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11385,7 +11385,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11473,7 +11473,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11496,7 +11496,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11519,7 +11519,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11542,7 +11542,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11634,7 +11634,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11657,7 +11657,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11680,7 +11680,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11699,7 +11699,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11720,7 +11720,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11743,7 +11743,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11812,7 +11812,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11835,7 +11835,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11904,7 +11904,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11923,7 +11923,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11944,7 +11944,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11990,7 +11990,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -12128,7 +12128,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -12147,7 +12147,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -12168,7 +12168,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -12214,7 +12214,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12237,7 +12237,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12260,7 +12260,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12283,7 +12283,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12306,7 +12306,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12352,7 +12352,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12371,7 +12371,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12392,7 +12392,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12417,7 +12417,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12440,7 +12440,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12463,7 +12463,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12486,7 +12486,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12509,7 +12509,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12532,7 +12532,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12620,7 +12620,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12641,7 +12641,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12664,7 +12664,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12689,7 +12689,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12758,7 +12758,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12850,7 +12850,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12896,7 +12896,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12938,7 +12938,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12961,7 +12961,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12984,7 +12984,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -13007,7 +13007,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -13030,7 +13030,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -13053,7 +13053,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -13076,7 +13076,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -13145,7 +13145,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -13168,7 +13168,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -13187,7 +13187,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -13212,7 +13212,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13231,7 +13231,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13252,7 +13252,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13277,7 +13277,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13296,7 +13296,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13319,7 +13319,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13344,7 +13344,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13367,7 +13367,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13388,7 +13388,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13407,7 +13407,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13432,7 +13432,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13478,7 +13478,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13547,7 +13547,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13570,7 +13570,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13589,7 +13589,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13612,7 +13612,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13677,7 +13677,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13723,7 +13723,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13746,7 +13746,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13769,7 +13769,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13834,7 +13834,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13859,7 +13859,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13882,7 +13882,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13905,7 +13905,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13928,7 +13928,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13974,7 +13974,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -14062,7 +14062,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -14087,7 +14087,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -14108,7 +14108,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -14131,7 +14131,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -14177,7 +14177,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -14200,7 +14200,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14246,7 +14246,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14269,7 +14269,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14292,7 +14292,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14315,7 +14315,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14338,7 +14338,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14361,7 +14361,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14384,7 +14384,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14403,7 +14403,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14426,7 +14426,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14445,7 +14445,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14468,7 +14468,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14510,7 +14510,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14535,7 +14535,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14581,7 +14581,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14627,7 +14627,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14650,7 +14650,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14696,7 +14696,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14719,7 +14719,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14742,7 +14742,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14761,7 +14761,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14786,7 +14786,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14832,7 +14832,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14855,7 +14855,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14878,7 +14878,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14901,7 +14901,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14924,7 +14924,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14947,7 +14947,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14970,7 +14970,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -15012,7 +15012,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -15035,7 +15035,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -15058,7 +15058,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -15081,7 +15081,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -15104,7 +15104,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -15123,7 +15123,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -15146,7 +15146,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15234,7 +15234,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15255,7 +15255,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15278,7 +15278,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15297,7 +15297,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15320,7 +15320,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15345,7 +15345,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15366,7 +15366,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15391,7 +15391,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15416,7 +15416,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15435,7 +15435,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15460,7 +15460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15483,7 +15483,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15506,7 +15506,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15552,7 +15552,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15575,7 +15575,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15644,7 +15644,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15663,7 +15663,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15688,7 +15688,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15711,7 +15711,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15734,7 +15734,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15757,7 +15757,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15780,7 +15780,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15803,7 +15803,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15826,7 +15826,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15849,7 +15849,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15891,7 +15891,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15912,7 +15912,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15935,7 +15935,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15981,7 +15981,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -16004,7 +16004,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -16027,7 +16027,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -16050,7 +16050,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -16096,7 +16096,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -16142,7 +16142,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -16165,7 +16165,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -16211,7 +16211,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16234,7 +16234,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16257,7 +16257,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16276,7 +16276,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16297,7 +16297,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16320,7 +16320,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16343,7 +16343,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16366,7 +16366,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16389,7 +16389,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16412,7 +16412,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16458,7 +16458,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16527,7 +16527,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16550,7 +16550,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16573,7 +16573,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16596,7 +16596,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16619,7 +16619,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16642,7 +16642,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16661,7 +16661,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16686,7 +16686,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16709,7 +16709,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16778,7 +16778,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16797,7 +16797,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16822,7 +16822,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16845,7 +16845,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16864,7 +16864,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16883,7 +16883,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16902,7 +16902,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16923,7 +16923,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16946,7 +16946,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16992,7 +16992,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -17038,7 +17038,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -17084,7 +17084,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -17107,7 +17107,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -17153,7 +17153,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -17172,7 +17172,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -17214,7 +17214,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17239,7 +17239,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17262,7 +17262,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17285,7 +17285,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17308,7 +17308,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17331,7 +17331,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17354,7 +17354,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17377,7 +17377,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17400,7 +17400,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17423,7 +17423,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17446,7 +17446,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17469,7 +17469,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17488,7 +17488,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17511,7 +17511,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17530,7 +17530,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17551,7 +17551,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17570,7 +17570,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17591,7 +17591,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17610,7 +17610,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17631,7 +17631,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17650,7 +17650,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17673,7 +17673,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17692,7 +17692,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17717,7 +17717,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17763,7 +17763,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17786,7 +17786,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17809,7 +17809,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17832,7 +17832,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17878,7 +17878,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17901,7 +17901,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17920,7 +17920,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17989,7 +17989,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -18012,7 +18012,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -18031,7 +18031,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -18054,7 +18054,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -18077,7 +18077,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -18102,7 +18102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -18121,7 +18121,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -18146,7 +18146,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -18188,7 +18188,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -18209,7 +18209,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18230,7 +18230,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18253,7 +18253,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18272,7 +18272,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18291,7 +18291,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18316,7 +18316,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18341,7 +18341,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18438,7 +18438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18455,7 +18455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18561,7 +18561,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18644,7 +18644,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18673,7 +18673,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18712,7 +18712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18726,7 +18726,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18900,7 +18900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18920,7 +18920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19010,7 +19010,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19036,7 +19036,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19077,7 +19077,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19125,7 +19125,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19164,17 +19164,17 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1">
+    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>639</v>
       </c>
@@ -19208,7 +19208,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="22" customFormat="1">
+    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>591</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="22" customFormat="1">
+    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>593</v>
       </c>
@@ -19242,7 +19242,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="22" customFormat="1">
+    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>595</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="22" customFormat="1">
+    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>597</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1">
+    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>599</v>
       </c>
@@ -19293,7 +19293,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1">
+    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>440</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="22" customFormat="1">
+    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>602</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>604</v>
       </c>
@@ -19344,9 +19344,9 @@
         <v>715</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="22" customFormat="1"/>
-    <row r="12" spans="1:7" s="22" customFormat="1"/>
-    <row r="13" spans="1:7">
+    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>571</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>456</v>
       </c>
@@ -19374,7 +19374,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>454</v>
       </c>
@@ -19385,8 +19385,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1"/>
-    <row r="18" spans="1:32">
+    <row r="16" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>550</v>
       </c>
@@ -19425,7 +19425,7 @@
       <c r="AE18" s="22"/>
       <c r="AF18" s="22"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>551</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -19552,7 +19552,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>544</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>553</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>554</v>
       </c>
@@ -19677,7 +19677,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>736</v>
       </c>
@@ -19709,7 +19709,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>731</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>732</v>
       </c>
@@ -19752,7 +19752,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>749</v>
       </c>
@@ -19775,7 +19775,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="L29" s="1" t="s">
         <v>541</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="L30" s="1" t="s">
         <v>543</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="L31" s="22" t="s">
         <v>734</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="L32" t="s">
         <v>739</v>
       </c>

--- a/projects/template.xlsx
+++ b/projects/template.xlsx
@@ -2304,7 +2304,7 @@
     <t>(TRUE/FALSE) If in_measure_combinations are TRUE, sets if static values be included in combinations</t>
   </si>
   <si>
-    <t>1.13.4</t>
+    <t>1.14.4</t>
   </si>
 </sst>
 </file>

--- a/projects/template.xlsx
+++ b/projects/template.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="757">
   <si>
     <t>type</t>
   </si>
@@ -1431,12 +1431,6 @@
     <t>true/false</t>
   </si>
   <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
-  </si>
-  <si>
     <t>Simulate Data Point Filename</t>
   </si>
   <si>
@@ -2184,15 +2178,6 @@
     <t>Recommended for worker</t>
   </si>
   <si>
-    <t>AWS Tag</t>
-  </si>
-  <si>
-    <t>org=5500</t>
-  </si>
-  <si>
-    <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
-  </si>
-  <si>
     <t>Worker Initialization Scripts - Name</t>
   </si>
   <si>
@@ -2223,9 +2208,6 @@
     <t>Number of worker nodes to start. This can be zero for testing purposes (all simulations will be run on the server node).</t>
   </si>
   <si>
-    <t>Typically leave this as TRUE unless you are running many worker nodes</t>
-  </si>
-  <si>
     <t>0.4.2</t>
   </si>
   <si>
@@ -2298,9 +2280,6 @@
     <t>(TRUE/FALSE) If in_measure_combinations are TRUE, sets if static values be included in combinations</t>
   </si>
   <si>
-    <t>1.14.10</t>
-  </si>
-  <si>
     <t>triangle</t>
   </si>
   <si>
@@ -2329,6 +2308,9 @@
   </si>
   <si>
     <t>integer giving the number of repetitions of the design</t>
+  </si>
+  <si>
+    <t>1.17.0</t>
   </si>
 </sst>
 </file>
@@ -4010,7 +3992,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4043,9 +4025,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5923,16 +5902,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.77734375" style="1" customWidth="1"/>
     <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
@@ -5941,7 +5920,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -5953,7 +5932,7 @@
       <c r="A2" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -5963,8 +5942,8 @@
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>728</v>
+      <c r="B3" s="17" t="s">
+        <v>722</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>436</v>
@@ -5974,8 +5953,8 @@
       <c r="A4" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>745</v>
+      <c r="B4" s="16" t="s">
+        <v>739</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>458</v>
@@ -5983,65 +5962,65 @@
     </row>
     <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>752</v>
+        <v>468</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>756</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>592</v>
-      </c>
-      <c r="C7" s="24" t="str">
+      <c r="B7" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
         <v>Recommended for Server</v>
       </c>
-      <c r="D7" s="24" t="str">
+      <c r="D7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>4 Cores with 40 GB</v>
       </c>
-      <c r="E7" s="24" t="str">
+      <c r="E7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="C8" s="24" t="str">
+      <c r="B8" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="C8" s="23" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
         <v>Recommended for worker</v>
       </c>
-      <c r="D8" s="24" t="str">
+      <c r="D8" s="23" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>32 Cores with 320 GB</v>
       </c>
-      <c r="E8" s="24" t="str">
+      <c r="E8" s="23" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6053,514 +6032,475 @@
       <c r="A9" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>0</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="24" t="s">
-        <v>652</v>
-      </c>
-      <c r="E9" s="24" t="str">
+      <c r="D9" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="E9" s="23" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
         <v>$0.28/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>714</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>472</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>701</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>613</v>
+        <v>25</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>463</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>613</v>
+        <v>464</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B16" s="18" t="b">
-        <v>1</v>
+        <v>465</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>543</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B17" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>465</v>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>436</v>
+        <v>604</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>436</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="A22" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v>Sample Method</v>
       </c>
-      <c r="B25" s="18" t="str">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B22" s="17" t="str">
+        <f>IF(D22&lt;&gt;"",D22,IF(LEN(INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v>individual_variables</v>
       </c>
-      <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C22" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v>individual_variables / all_variables</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="D22" s="26"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v>Number of Samples</v>
       </c>
-      <c r="B26" s="18">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B23" s="17">
+        <f>IF(D23&lt;&gt;"",D23,IF(LEN(INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v>40</v>
       </c>
-      <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C23" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D23" s="26">
         <v>40</v>
       </c>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
       </c>
-      <c r="B27" s="18" t="str">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B24" s="17" t="str">
+        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v/>
       </c>
-      <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C24" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="23"/>
-    </row>
-    <row r="28" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="D24" s="26"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
       </c>
-      <c r="B28" s="18" t="str">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B25" s="17" t="str">
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v/>
       </c>
-      <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C25" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
       </c>
-      <c r="B29" s="18" t="str">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B26" s="17" t="str">
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v/>
       </c>
-      <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C26" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
       </c>
-      <c r="B30" s="18" t="str">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B27" s="17" t="str">
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v/>
       </c>
-      <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C27" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
       </c>
-      <c r="B31" s="18" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B28" s="17" t="str">
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v/>
       </c>
-      <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C28" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
       </c>
-      <c r="B32" s="18" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B29" s="17" t="str">
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v/>
       </c>
-      <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C29" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
       </c>
-      <c r="B33" s="18" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B30" s="17" t="str">
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v/>
       </c>
-      <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C30" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D33" s="27"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
       </c>
-      <c r="B34" s="18" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B31" s="17" t="str">
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v/>
       </c>
-      <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C31" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="D31" s="26"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
       </c>
-      <c r="B35" s="18" t="str">
-        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$19:$AI$29,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$29,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B32" s="17" t="str">
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$19:$AI$29,11,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$29,11,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v/>
       </c>
-      <c r="C35" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C32" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D35" s="27"/>
-    </row>
-    <row r="36" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
       </c>
-      <c r="B36" s="18" t="str">
-        <f>IF(D36&lt;&gt;"",D36,IF(LEN(INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B33" s="17" t="str">
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v/>
       </c>
-      <c r="C36" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C33" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
       </c>
-      <c r="B37" s="18" t="str">
-        <f>IF(D37&lt;&gt;"",D37,IF(LEN(INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B34" s="17" t="str">
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v/>
       </c>
-      <c r="C37" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C34" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-2))</f>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
       </c>
-      <c r="B38" s="18" t="str">
-        <f>IF(D38&lt;&gt;"",D38,IF(LEN(INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)-1)))</f>
+      <c r="B35" s="17" t="str">
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-1)))</f>
         <v/>
       </c>
-      <c r="C38" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B22,Lookups!$A$19:$A$29,0)))</f>
+      <c r="C35" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B19,Lookups!$A$19:$A$29,0)))</f>
         <v/>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>614</v>
+        <v>29</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>454</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>612</v>
+      </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>454</v>
+        <v>34</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>614</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>33</v>
+        <v>712</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>713</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+        <v>714</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="8" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="17"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>717</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="C48" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="8" t="s">
         <v>718</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="8" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="18"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="8" t="s">
-        <v>723</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>AnalysisType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B17">
-      <formula1>TrueFalse</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>Workflow</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -6592,7 +6532,7 @@
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
@@ -6612,194 +6552,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="32" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+    </row>
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+    </row>
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>633</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="P3" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33" t="s">
+      <c r="Q3" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>548</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-    </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="R3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="34"/>
+    </row>
+    <row r="4" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>635</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="X3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="35"/>
-    </row>
-    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-    </row>
-    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+    </row>
+    <row r="5" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6823,12 +6763,12 @@
         <v>82</v>
       </c>
       <c r="K5" s="15"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
@@ -6839,61 +6779,61 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42" t="s">
+    <row r="6" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42" t="s">
-        <v>703</v>
-      </c>
-      <c r="E6" s="42" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41" t="s">
+        <v>701</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42">
-        <v>0</v>
-      </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="43">
-        <v>0</v>
-      </c>
-      <c r="L6" s="43">
+      <c r="H6" s="41"/>
+      <c r="I6" s="41">
+        <v>0</v>
+      </c>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42">
+        <v>0</v>
+      </c>
+      <c r="L6" s="42">
         <v>70</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="42">
         <v>20</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="42">
         <v>11.66666667</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="42" t="s">
-        <v>753</v>
-      </c>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-    </row>
-    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="41" t="s">
+        <v>746</v>
+      </c>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+    </row>
+    <row r="7" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -6908,13 +6848,13 @@
         <v>150</v>
       </c>
       <c r="J7" s="15"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
@@ -6925,7 +6865,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6946,13 +6886,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -6963,7 +6903,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6984,13 +6924,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="15"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
@@ -7001,7 +6941,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -7022,13 +6962,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
@@ -7039,7 +6979,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -7060,13 +7000,13 @@
         <v>15</v>
       </c>
       <c r="J11" s="15"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
@@ -7077,7 +7017,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -7098,13 +7038,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="15"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
@@ -7115,7 +7055,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -7136,13 +7076,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="15"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
@@ -7153,179 +7093,179 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="b">
+    <row r="14" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-    </row>
-    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+    </row>
+    <row r="15" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42" t="s">
-        <v>704</v>
-      </c>
-      <c r="E15" s="42" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
+        <v>702</v>
+      </c>
+      <c r="E15" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42">
-        <v>0</v>
-      </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42">
-        <v>0</v>
-      </c>
-      <c r="L15" s="42">
+      <c r="H15" s="41"/>
+      <c r="I15" s="41">
+        <v>0</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41">
+        <v>0</v>
+      </c>
+      <c r="L15" s="41">
         <v>359</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="41">
         <v>180</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="42">
         <v>59.833333330000002</v>
       </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="42" t="s">
-        <v>754</v>
-      </c>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-    </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="b">
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="41" t="s">
+        <v>747</v>
+      </c>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+    </row>
+    <row r="16" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-    </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+    </row>
+    <row r="17" spans="1:26" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46" t="s">
-        <v>705</v>
-      </c>
-      <c r="E17" s="46" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46" t="s">
+      <c r="F17" s="45"/>
+      <c r="G17" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46">
+      <c r="H17" s="45"/>
+      <c r="I17" s="45">
         <v>13</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="42">
-        <v>0</v>
-      </c>
-      <c r="L17" s="42">
+      <c r="J17" s="45"/>
+      <c r="K17" s="41">
+        <v>0</v>
+      </c>
+      <c r="L17" s="41">
         <v>50</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="45">
         <v>25</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="42">
         <v>8.3333333330000006</v>
       </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42" t="s">
-        <v>755</v>
-      </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-    </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O17" s="42"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41" t="s">
+        <v>748</v>
+      </c>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+    </row>
+    <row r="18" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7363,7 +7303,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7401,7 +7341,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7439,97 +7379,97 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="b">
+    <row r="21" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-    </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+    </row>
+    <row r="22" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46" t="s">
+      <c r="C22" s="45"/>
+      <c r="D22" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45">
+        <v>10</v>
+      </c>
+      <c r="J22" s="45"/>
+      <c r="K22" s="41">
+        <v>10</v>
+      </c>
+      <c r="L22" s="41">
+        <v>80</v>
+      </c>
+      <c r="M22" s="45">
+        <v>50</v>
+      </c>
+      <c r="N22" s="41">
+        <v>10</v>
+      </c>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q22" s="41" t="s">
         <v>706</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46">
-        <v>10</v>
-      </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="42">
-        <v>10</v>
-      </c>
-      <c r="L22" s="42">
-        <v>80</v>
-      </c>
-      <c r="M22" s="46">
-        <v>50</v>
-      </c>
-      <c r="N22" s="42">
-        <v>10</v>
-      </c>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42" t="s">
-        <v>707</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>708</v>
-      </c>
-      <c r="R22" s="42" t="s">
-        <v>754</v>
-      </c>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-    </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R22" s="41" t="s">
+        <v>747</v>
+      </c>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+    </row>
+    <row r="23" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7567,7 +7507,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7605,7 +7545,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7643,93 +7583,93 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="b">
+    <row r="26" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="39" t="s">
-        <v>724</v>
-      </c>
-      <c r="C26" s="39" t="s">
+      <c r="B26" s="38" t="s">
+        <v>719</v>
+      </c>
+      <c r="C26" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-    </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+    </row>
+    <row r="27" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46" t="s">
-        <v>699</v>
-      </c>
-      <c r="E27" s="46" t="s">
+      <c r="C27" s="45"/>
+      <c r="D27" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="E27" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46" t="s">
+      <c r="F27" s="45"/>
+      <c r="G27" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46">
+      <c r="H27" s="45"/>
+      <c r="I27" s="45">
         <v>0.4</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="42">
+      <c r="J27" s="45"/>
+      <c r="K27" s="41">
         <v>0.05</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="41">
         <v>0.95</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27" s="45">
         <v>0.4</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="42">
         <v>0.15</v>
       </c>
-      <c r="O27" s="43"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42" t="s">
-        <v>753</v>
-      </c>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-    </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O27" s="42"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41" t="s">
+        <v>746</v>
+      </c>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+    </row>
+    <row r="28" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7767,7 +7707,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7785,7 +7725,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>83</v>
@@ -7807,93 +7747,93 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="b">
+    <row r="30" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B30" s="39" t="s">
-        <v>725</v>
-      </c>
-      <c r="C30" s="39" t="s">
+      <c r="B30" s="38" t="s">
+        <v>720</v>
+      </c>
+      <c r="C30" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-    </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46" t="s">
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+    </row>
+    <row r="31" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46" t="s">
-        <v>700</v>
-      </c>
-      <c r="E31" s="46" t="s">
+      <c r="C31" s="45"/>
+      <c r="D31" s="45" t="s">
+        <v>698</v>
+      </c>
+      <c r="E31" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46" t="s">
+      <c r="F31" s="45"/>
+      <c r="G31" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46">
+      <c r="H31" s="45"/>
+      <c r="I31" s="45">
         <v>0.4</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="42">
+      <c r="J31" s="45"/>
+      <c r="K31" s="41">
         <v>0.05</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L31" s="41">
         <v>0.95</v>
       </c>
-      <c r="M31" s="46">
+      <c r="M31" s="45">
         <v>0.4</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="42">
         <v>0.15</v>
       </c>
-      <c r="O31" s="43"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42" t="s">
-        <v>753</v>
-      </c>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-    </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O31" s="42"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41" t="s">
+        <v>746</v>
+      </c>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+    </row>
+    <row r="32" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7931,7 +7871,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7949,7 +7889,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>83</v>
@@ -7971,95 +7911,95 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="b">
+    <row r="34" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-    </row>
-    <row r="35" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42" t="s">
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+    </row>
+    <row r="35" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42" t="s">
-        <v>709</v>
-      </c>
-      <c r="E35" s="42" t="s">
+      <c r="C35" s="41"/>
+      <c r="D35" s="41" t="s">
+        <v>707</v>
+      </c>
+      <c r="E35" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="42" t="s">
-        <v>692</v>
-      </c>
-      <c r="G35" s="42" t="s">
+      <c r="F35" s="41" t="s">
+        <v>690</v>
+      </c>
+      <c r="G35" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42">
+      <c r="H35" s="41"/>
+      <c r="I35" s="41">
         <v>0.5</v>
       </c>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42">
-        <v>0</v>
-      </c>
-      <c r="L35" s="42">
+      <c r="J35" s="41"/>
+      <c r="K35" s="41">
+        <v>0</v>
+      </c>
+      <c r="L35" s="41">
         <v>0.8</v>
       </c>
-      <c r="M35" s="42">
+      <c r="M35" s="41">
         <v>0.5</v>
       </c>
-      <c r="N35" s="42">
+      <c r="N35" s="41">
         <v>0.133333333</v>
       </c>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42" t="s">
-        <v>754</v>
-      </c>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="42"/>
-    </row>
-    <row r="36" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41" t="s">
+        <v>747</v>
+      </c>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+    </row>
+    <row r="36" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
@@ -8099,7 +8039,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -8137,7 +8077,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -8156,7 +8096,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -8175,147 +8115,147 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="47" t="b">
+    <row r="39" spans="1:26" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-    </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48" t="s">
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+    </row>
+    <row r="40" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48" t="s">
+      <c r="C40" s="47"/>
+      <c r="D40" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48" t="s">
+      <c r="F40" s="47"/>
+      <c r="G40" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48">
+      <c r="H40" s="47"/>
+      <c r="I40" s="47">
         <v>1</v>
       </c>
-      <c r="J40" s="48"/>
-      <c r="K40" s="49">
+      <c r="J40" s="47"/>
+      <c r="K40" s="48">
         <v>-2</v>
       </c>
-      <c r="L40" s="49">
-        <v>2</v>
-      </c>
-      <c r="M40" s="49">
-        <v>0</v>
-      </c>
-      <c r="N40" s="49">
+      <c r="L40" s="48">
+        <v>2</v>
+      </c>
+      <c r="M40" s="48">
+        <v>0</v>
+      </c>
+      <c r="N40" s="48">
         <f>(L40-K40)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O40" s="49">
+      <c r="O40" s="48">
         <v>1</v>
       </c>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50" t="s">
-        <v>754</v>
-      </c>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-    </row>
-    <row r="41" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48" t="s">
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49" t="s">
+        <v>747</v>
+      </c>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="49"/>
+    </row>
+    <row r="41" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48" t="s">
+      <c r="F41" s="47"/>
+      <c r="G41" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48">
+      <c r="H41" s="47"/>
+      <c r="I41" s="47">
         <v>-1</v>
       </c>
-      <c r="J41" s="48"/>
-      <c r="K41" s="49">
+      <c r="J41" s="47"/>
+      <c r="K41" s="48">
         <v>-2</v>
       </c>
-      <c r="L41" s="49">
-        <v>2</v>
-      </c>
-      <c r="M41" s="49">
-        <v>0</v>
-      </c>
-      <c r="N41" s="49">
+      <c r="L41" s="48">
+        <v>2</v>
+      </c>
+      <c r="M41" s="48">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48">
         <f>(L41-K41)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O41" s="49">
+      <c r="O41" s="48">
         <v>1</v>
       </c>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50" t="s">
-        <v>754</v>
-      </c>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-    </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49" t="s">
+        <v>747</v>
+      </c>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="49"/>
+    </row>
+    <row r="42" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -8336,204 +8276,204 @@
         <v>0</v>
       </c>
       <c r="J42" s="10"/>
-      <c r="P42" s="23"/>
-    </row>
-    <row r="43" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="b">
+      <c r="P42" s="22"/>
+    </row>
+    <row r="43" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="49"/>
+      <c r="B44" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49" t="s">
+        <v>531</v>
+      </c>
+      <c r="E44" s="49" t="s">
         <v>532</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50" t="s">
-        <v>533</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>534</v>
-      </c>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50" t="s">
+      <c r="F44" s="49"/>
+      <c r="G44" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50">
+      <c r="H44" s="49"/>
+      <c r="I44" s="49">
         <v>44</v>
       </c>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50">
+      <c r="J44" s="49"/>
+      <c r="K44" s="49">
         <v>42</v>
       </c>
-      <c r="L44" s="50">
+      <c r="L44" s="49">
         <v>46</v>
       </c>
-      <c r="M44" s="50">
+      <c r="M44" s="49">
         <v>44</v>
       </c>
-      <c r="N44" s="49">
+      <c r="N44" s="48">
         <f>(L44-K44)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O44" s="49">
+      <c r="O44" s="48">
         <v>1</v>
       </c>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50" t="s">
-        <v>753</v>
-      </c>
-      <c r="S44" s="50"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="50"/>
-      <c r="V44" s="50"/>
-      <c r="W44" s="50"/>
-      <c r="X44" s="50"/>
-      <c r="Y44" s="50"/>
-      <c r="Z44" s="50"/>
-    </row>
-    <row r="45" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="b">
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="49"/>
+      <c r="X44" s="49"/>
+      <c r="Y44" s="49"/>
+      <c r="Z44" s="49"/>
+    </row>
+    <row r="45" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="B45" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="C45" s="29" t="s">
+      <c r="B45" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+    </row>
+    <row r="46" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="49"/>
+      <c r="B46" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49" t="s">
         <v>535</v>
       </c>
-      <c r="D45" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-    </row>
-    <row r="46" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50" t="s">
-        <v>537</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>536</v>
-      </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50" t="s">
+      <c r="E46" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50">
+      <c r="H46" s="49"/>
+      <c r="I46" s="49">
         <v>120</v>
       </c>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50">
+      <c r="J46" s="49"/>
+      <c r="K46" s="49">
         <v>118</v>
       </c>
-      <c r="L46" s="50">
+      <c r="L46" s="49">
         <v>122</v>
       </c>
-      <c r="M46" s="50">
+      <c r="M46" s="49">
         <v>120</v>
       </c>
-      <c r="N46" s="49">
+      <c r="N46" s="48">
         <f>(L46-K46)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O46" s="49">
+      <c r="O46" s="48">
         <v>1</v>
       </c>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50" t="s">
-        <v>753</v>
-      </c>
-      <c r="S46" s="50"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
-      <c r="W46" s="50"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="50"/>
-    </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="45" t="b">
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="49"/>
+    </row>
+    <row r="47" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="E47" s="45" t="s">
+      <c r="E47" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="39"/>
-    </row>
-    <row r="48" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
+    </row>
+    <row r="48" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -8573,7 +8513,7 @@
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -8613,7 +8553,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8822,11 +8762,11 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
@@ -8906,11 +8846,11 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="15"/>
@@ -8990,11 +8930,11 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
@@ -9074,11 +9014,11 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
       <c r="R66" s="15"/>
       <c r="S66" s="15"/>
       <c r="T66" s="15"/>
@@ -9158,11 +9098,11 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
       <c r="R69" s="15"/>
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
@@ -9272,8 +9212,8 @@
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
       <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
@@ -9440,8 +9380,8 @@
       <c r="L79" s="15"/>
       <c r="M79" s="15"/>
       <c r="N79" s="10"/>
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
@@ -9636,8 +9576,8 @@
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
       <c r="S86" s="15"/>
@@ -9692,8 +9632,8 @@
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
       <c r="S88" s="15"/>
@@ -9720,8 +9660,8 @@
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
       <c r="S89" s="15"/>
@@ -9776,8 +9716,8 @@
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
       <c r="S91" s="15"/>
@@ -9832,8 +9772,8 @@
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
       <c r="Q93" s="15"/>
       <c r="R93" s="15"/>
       <c r="S93" s="15"/>
@@ -9888,8 +9828,8 @@
       <c r="L95" s="15"/>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="15"/>
       <c r="S95" s="15"/>
@@ -9944,8 +9884,8 @@
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
       <c r="Q97" s="15"/>
       <c r="R97" s="15"/>
       <c r="S97" s="15"/>
@@ -10012,7 +9952,7 @@
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
@@ -10027,114 +9967,114 @@
     <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+    <row r="1" spans="1:13" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>636</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="35" t="s">
+      <c r="I2" s="34" t="s">
         <v>617</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="J2" s="34" t="s">
         <v>618</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="K2" s="34" t="s">
         <v>619</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="L2" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>621</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="B3" s="34" t="s">
+        <v>635</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>622</v>
       </c>
-      <c r="M2" s="35"/>
-    </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>623</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>637</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="G3" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="J3" s="36" t="s">
         <v>625</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35" t="s">
+      <c r="K3" s="34" t="s">
+        <v>625</v>
+      </c>
+      <c r="L3" s="34" t="s">
         <v>626</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="J3" s="37" t="s">
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="K3" s="35" t="s">
-        <v>627</v>
-      </c>
-      <c r="L3" s="35" t="s">
+      <c r="B4" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="M3" s="35"/>
-    </row>
-    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>631</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>63</v>
@@ -10155,21 +10095,21 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>694</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>634</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>63</v>
@@ -10192,17 +10132,17 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>63</v>
@@ -10221,17 +10161,17 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>63</v>
@@ -10250,17 +10190,17 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>63</v>
@@ -10279,17 +10219,17 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>63</v>
@@ -10308,17 +10248,17 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>63</v>
@@ -10337,17 +10277,17 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>63</v>
@@ -10366,17 +10306,17 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>63</v>
@@ -10395,17 +10335,17 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>63</v>
@@ -10424,17 +10364,17 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>63</v>
@@ -10453,17 +10393,17 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>63</v>
@@ -10482,17 +10422,17 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>63</v>
@@ -10511,17 +10451,17 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>63</v>
@@ -10540,17 +10480,17 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>63</v>
@@ -10569,17 +10509,17 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>63</v>
@@ -10598,17 +10538,17 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>63</v>
@@ -10627,17 +10567,17 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>63</v>
@@ -10656,17 +10596,17 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>63</v>
@@ -10685,17 +10625,17 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>63</v>
@@ -10714,17 +10654,17 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>63</v>
@@ -10804,202 +10744,202 @@
       <c r="M28" s="15"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="22"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="22"/>
+      <c r="B30" s="21"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
+      <c r="B31" s="21"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="22"/>
+      <c r="B33" s="21"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="22"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
+      <c r="B35" s="21"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
+      <c r="B36" s="21"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
+      <c r="B37" s="21"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="22"/>
+      <c r="B38" s="21"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="22"/>
+      <c r="B39" s="21"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="22"/>
+      <c r="B40" s="21"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="22"/>
+      <c r="B41" s="21"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="22"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
+      <c r="B43" s="21"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
+      <c r="B44" s="21"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
+      <c r="B45" s="21"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
+      <c r="B46" s="21"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="21"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="22"/>
+      <c r="B48" s="21"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="22"/>
+      <c r="B49" s="21"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="22"/>
+      <c r="B50" s="21"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="22"/>
+      <c r="B51" s="21"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="22"/>
+      <c r="B52" s="21"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="22"/>
+      <c r="B53" s="21"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="22"/>
+      <c r="B54" s="21"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="22"/>
+      <c r="B55" s="21"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="22"/>
+      <c r="B56" s="21"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="22"/>
+      <c r="B57" s="21"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="22"/>
+      <c r="B58" s="21"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="22"/>
+      <c r="B59" s="21"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="22"/>
+      <c r="B60" s="21"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="22"/>
+      <c r="B61" s="21"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="22"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="22"/>
+      <c r="B63" s="21"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="22"/>
+      <c r="B64" s="21"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="22"/>
+      <c r="B65" s="21"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="22"/>
+      <c r="B66" s="21"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="22"/>
+      <c r="B67" s="21"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="22"/>
+      <c r="B68" s="21"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="22"/>
+      <c r="B69" s="21"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="22"/>
+      <c r="B70" s="21"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="22"/>
+      <c r="B71" s="21"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="22"/>
+      <c r="B72" s="21"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="22"/>
+      <c r="B73" s="21"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="22"/>
+      <c r="B74" s="21"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="22"/>
+      <c r="B75" s="21"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="22"/>
+      <c r="B76" s="21"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="22"/>
+      <c r="B77" s="21"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="22"/>
+      <c r="B78" s="21"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="22"/>
+      <c r="B79" s="21"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="22"/>
+      <c r="B80" s="21"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="22"/>
+      <c r="B81" s="21"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="22"/>
+      <c r="B82" s="21"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="22"/>
+      <c r="B83" s="21"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="22"/>
+      <c r="B84" s="21"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="22"/>
+      <c r="B85" s="21"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="22"/>
+      <c r="B86" s="21"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="22"/>
+      <c r="B87" s="21"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="22"/>
+      <c r="B88" s="21"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="22"/>
+      <c r="B89" s="21"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="22"/>
+      <c r="B90" s="21"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="22"/>
+      <c r="B91" s="21"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="22"/>
+      <c r="B92" s="21"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="22"/>
+      <c r="B93" s="21"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="22"/>
+      <c r="B94" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18372,10 +18312,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C328" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D328" t="s">
         <v>67</v>
@@ -18386,10 +18326,10 @@
         <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D329" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -18398,10 +18338,10 @@
         <v>61</v>
       </c>
       <c r="H329" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I329" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -18409,10 +18349,10 @@
         <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D330" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -18429,10 +18369,10 @@
         <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D331" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -18449,10 +18389,10 @@
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D332" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -18469,10 +18409,10 @@
         <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D333" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -18486,10 +18426,10 @@
         <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D334" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -18498,10 +18438,10 @@
         <v>61</v>
       </c>
       <c r="H334" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I334" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -18509,10 +18449,10 @@
         <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D335" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -18521,10 +18461,10 @@
         <v>61</v>
       </c>
       <c r="H335" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I335" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -18532,10 +18472,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C336" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D336" t="s">
         <v>67</v>
@@ -18546,10 +18486,10 @@
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D337" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -18558,10 +18498,10 @@
         <v>61</v>
       </c>
       <c r="H337" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I337" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.3">
@@ -18569,10 +18509,10 @@
         <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D338" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -18581,10 +18521,10 @@
         <v>61</v>
       </c>
       <c r="H338" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I338" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.3">
@@ -18592,10 +18532,10 @@
         <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D339" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -18612,10 +18552,10 @@
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D340" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -18632,10 +18572,10 @@
         <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D341" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -18649,10 +18589,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>67</v>
@@ -18676,10 +18616,10 @@
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D343" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -18688,10 +18628,10 @@
         <v>61</v>
       </c>
       <c r="H343" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I343" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -18705,10 +18645,10 @@
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D344" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -18743,10 +18683,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C345" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>67</v>
@@ -18757,10 +18697,10 @@
         <v>21</v>
       </c>
       <c r="C346" t="s">
+        <v>519</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -18971,10 +18911,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C357" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D357" t="s">
         <v>67</v>
@@ -18985,10 +18925,10 @@
         <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D358" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -19005,10 +18945,10 @@
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D359" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -19025,10 +18965,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>67</v>
@@ -19041,10 +18981,10 @@
         <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D361" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -19054,10 +18994,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I361" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -19068,10 +19008,10 @@
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D362" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -19108,10 +19048,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C363" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>67</v>
@@ -19122,10 +19062,10 @@
         <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D364" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -19142,10 +19082,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C365" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>67</v>
@@ -19156,10 +19096,10 @@
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D366" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -19211,179 +19151,179 @@
         <v>438</v>
       </c>
       <c r="D1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>638</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E2" s="21" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E3" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>590</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="E4" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>591</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C6" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="E8" s="21" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="E9" s="21" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>644</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>603</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="E10" s="21" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>568</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="E13" t="s">
+        <v>553</v>
+      </c>
+      <c r="G13" t="s">
         <v>570</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="E13" t="s">
-        <v>555</v>
-      </c>
-      <c r="G13" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -19394,10 +19334,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -19408,93 +19348,93 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C18" t="s">
-        <v>550</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+        <v>548</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>749</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
       <c r="I18" t="s">
         <v>15</v>
       </c>
       <c r="L18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="R18" t="s">
-        <v>564</v>
-      </c>
-      <c r="U18" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="X18" s="22" t="s">
-        <v>734</v>
-      </c>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
+        <v>562</v>
+      </c>
+      <c r="U18" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="X18" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
       <c r="AA18" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="AD18" t="s">
-        <v>730</v>
-      </c>
-      <c r="AG18" s="22" t="s">
-        <v>747</v>
-      </c>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
+        <v>724</v>
+      </c>
+      <c r="AG18" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>550</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>757</v>
-      </c>
-      <c r="G19" s="22">
+        <v>548</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>750</v>
+      </c>
+      <c r="G19" s="21">
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="I19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J19" t="s">
         <v>455</v>
       </c>
       <c r="K19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="M19" s="21">
+        <v>537</v>
+      </c>
+      <c r="M19" s="20">
         <v>0.01</v>
       </c>
-      <c r="N19" s="23" t="s">
-        <v>578</v>
+      <c r="N19" s="22" t="s">
+        <v>576</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="P19">
         <v>30</v>
       </c>
       <c r="Q19" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="R19" t="s">
         <v>4</v>
@@ -19502,49 +19442,49 @@
       <c r="S19">
         <v>30</v>
       </c>
-      <c r="T19" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="X19" s="22" t="s">
+      <c r="T19" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="X19" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="Z19" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="AD19" s="21" t="s">
+        <v>725</v>
+      </c>
+      <c r="AE19" s="21">
+        <v>30</v>
+      </c>
+      <c r="AF19" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="AG19" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH19" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="21" t="s">
         <v>743</v>
       </c>
-      <c r="Y19" s="22" t="s">
-        <v>736</v>
-      </c>
-      <c r="Z19" s="22" t="s">
-        <v>736</v>
-      </c>
-      <c r="AD19" s="22" t="s">
-        <v>731</v>
-      </c>
-      <c r="AE19" s="22">
-        <v>30</v>
-      </c>
-      <c r="AF19" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="AG19" s="22" t="s">
-        <v>748</v>
-      </c>
-      <c r="AH19" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="22" t="s">
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>758</v>
-      </c>
-      <c r="G20" s="22">
+      <c r="F20" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="G20" s="21">
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="I20" t="s">
         <v>4</v>
@@ -19553,365 +19493,365 @@
         <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="M20" s="21">
+        <v>542</v>
+      </c>
+      <c r="M20" s="20">
         <v>0.01</v>
       </c>
       <c r="N20" t="s">
-        <v>577</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>565</v>
+        <v>575</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>563</v>
       </c>
       <c r="P20">
         <v>5</v>
       </c>
-      <c r="Q20" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="R20" s="23" t="s">
-        <v>565</v>
+      <c r="Q20" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>563</v>
       </c>
       <c r="S20">
         <v>3</v>
       </c>
       <c r="T20" t="s">
-        <v>579</v>
-      </c>
-      <c r="X20" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="X20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Y20" s="22">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="22" t="s">
-        <v>735</v>
-      </c>
-      <c r="AG20" s="22" t="s">
-        <v>750</v>
-      </c>
-      <c r="AH20" s="22" t="b">
+      <c r="Y20" s="21">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="AG20" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH20" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AI20" s="22" t="s">
-        <v>751</v>
+      <c r="AI20" s="21" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>759</v>
-      </c>
-      <c r="G21" s="22">
+      <c r="F21" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="G21" s="21">
         <v>1</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="21"/>
       <c r="L21" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="M21" s="21">
+        <v>556</v>
+      </c>
+      <c r="M21" s="20">
         <v>45036000000000</v>
       </c>
       <c r="N21" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21" t="s">
-        <v>584</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>566</v>
+        <v>582</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>564</v>
       </c>
       <c r="S21">
         <v>0.85</v>
       </c>
       <c r="T21" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>543</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>760</v>
+        <v>541</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>753</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M22">
         <v>100</v>
       </c>
       <c r="N22" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="O22" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P22">
         <v>2</v>
       </c>
       <c r="Q22" t="s">
-        <v>582</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>567</v>
+        <v>580</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>565</v>
       </c>
       <c r="S22">
         <v>5</v>
       </c>
       <c r="T22" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>552</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
+        <v>550</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
       <c r="L23" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>739</v>
-      </c>
-      <c r="P23" s="22">
+        <v>538</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="P23" s="21">
         <v>1</v>
       </c>
-      <c r="Q23" s="23" t="s">
-        <v>740</v>
-      </c>
-      <c r="R23" s="23" t="s">
-        <v>568</v>
+      <c r="Q23" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>566</v>
       </c>
       <c r="S23">
         <v>5</v>
       </c>
-      <c r="T23" s="22" t="s">
-        <v>588</v>
+      <c r="T23" s="21" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>551</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
+        <v>549</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
       <c r="L24" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="M24" s="23">
+        <v>540</v>
+      </c>
+      <c r="M24" s="22">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="P24" s="21">
+        <v>561</v>
+      </c>
+      <c r="P24" s="20">
         <v>0.01</v>
       </c>
-      <c r="Q24" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="R24" s="23" t="s">
-        <v>569</v>
+      <c r="Q24" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>567</v>
       </c>
       <c r="S24">
         <v>0.8</v>
       </c>
       <c r="T24" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>553</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="L25" s="22" t="s">
-        <v>732</v>
-      </c>
-      <c r="M25" s="23">
-        <v>0</v>
-      </c>
-      <c r="N25" s="23" t="s">
-        <v>733</v>
+        <v>551</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="L25" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="M25" s="22">
+        <v>0</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>727</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="P25" s="21">
+        <v>537</v>
+      </c>
+      <c r="P25" s="20">
         <v>0.01</v>
       </c>
-      <c r="Q25" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="R25" s="23" t="s">
-        <v>741</v>
-      </c>
-      <c r="S25" s="22">
-        <v>2</v>
-      </c>
-      <c r="T25" s="22" t="s">
-        <v>742</v>
+      <c r="Q25" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="S25" s="21">
+        <v>2</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>734</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+        <v>728</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
       <c r="O26" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="P26" s="21">
+        <v>542</v>
+      </c>
+      <c r="P26" s="20">
         <v>0.01</v>
       </c>
-      <c r="Q26" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="R26" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="S26" s="23" t="s">
-        <v>541</v>
+      <c r="Q26" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="S26" s="22" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>729</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+        <v>723</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
       <c r="O27" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="P27" s="21">
+        <v>556</v>
+      </c>
+      <c r="P27" s="20">
         <v>45036000000000</v>
       </c>
-      <c r="Q27" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="R27" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="S27" s="23">
-        <v>2</v>
-      </c>
-      <c r="T27" s="22" t="s">
+      <c r="Q27" s="21" t="s">
         <v>574</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="S27" s="22">
+        <v>2</v>
+      </c>
+      <c r="T27" s="21" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>730</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
+        <v>724</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="O28" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="P28" s="22">
+        <v>557</v>
+      </c>
+      <c r="P28" s="21">
         <v>100</v>
       </c>
-      <c r="Q28" s="22" t="s">
-        <v>575</v>
+      <c r="Q28" s="21" t="s">
+        <v>573</v>
       </c>
       <c r="R28" t="s">
+        <v>726</v>
+      </c>
+      <c r="S28" s="22">
+        <v>0</v>
+      </c>
+      <c r="T28" s="22" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="O29" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="P29" s="22" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="O30" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="P30" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="O31" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="P31" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="22" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="O32" t="s">
+        <v>731</v>
+      </c>
+      <c r="P32" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="22" t="s">
         <v>732</v>
-      </c>
-      <c r="S28" s="23">
-        <v>0</v>
-      </c>
-      <c r="T28" s="23" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>747</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="O29" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="P29" s="23" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="O30" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="P30" s="23">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="22" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="O31" s="22" t="s">
-        <v>732</v>
-      </c>
-      <c r="P31" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="23" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="O32" t="s">
-        <v>737</v>
-      </c>
-      <c r="P32" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="23" t="s">
-        <v>738</v>
       </c>
     </row>
   </sheetData>

--- a/projects/template.xlsx
+++ b/projects/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13180" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$14:$C$15</definedName>
     <definedName name="Workflow">Lookups!$E$14:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2310,7 +2310,7 @@
     <t>integer giving the number of repetitions of the design</t>
   </si>
   <si>
-    <t>1.17.0</t>
+    <t>2.2.0</t>
   </si>
 </sst>
 </file>
@@ -5905,20 +5905,20 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.77734375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="12"/>
       <c r="B1" s="19"/>
       <c r="C1" s="12"/>
@@ -5928,7 +5928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>434</v>
       </c>
@@ -5938,7 +5938,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="1" t="s">
         <v>457</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="42">
       <c r="A5" s="1" t="s">
         <v>468</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>469</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>441</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28">
       <c r="A8" s="1" t="s">
         <v>442</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28">
       <c r="A9" s="1" t="s">
         <v>459</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="7" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -6057,7 +6057,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>463</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>465</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>452</v>
       </c>
@@ -6134,12 +6134,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="22" customFormat="1">
       <c r="B20" s="17"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A21" s="6" t="s">
         <v>450</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v>Sample Method</v>
@@ -6173,7 +6173,7 @@
       <c r="D22" s="26"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="28">
       <c r="A23" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v>Number of Samples</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6207,7 +6207,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="22" customFormat="1">
       <c r="A25" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="D25" s="26"/>
     </row>
-    <row r="26" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="22" customFormat="1">
       <c r="A26" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="D26" s="26"/>
     </row>
-    <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="22" customFormat="1">
       <c r="A27" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="D27" s="26"/>
     </row>
-    <row r="28" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="22" customFormat="1">
       <c r="A28" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="D28" s="26"/>
     </row>
-    <row r="29" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="22" customFormat="1">
       <c r="A29" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="D29" s="26"/>
     </row>
-    <row r="30" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="22" customFormat="1">
       <c r="A30" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="D30" s="26"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6313,7 +6313,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="22" customFormat="1">
       <c r="A32" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D32" s="26"/>
     </row>
-    <row r="33" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="22" customFormat="1">
       <c r="A33" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6344,7 +6344,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="22" customFormat="1">
       <c r="A34" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6360,7 +6360,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="22" customFormat="1">
       <c r="A35" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B19,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6376,7 +6376,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
@@ -6390,7 +6390,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A39" s="6" t="s">
         <v>29</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="28">
       <c r="A40" s="22" t="s">
         <v>31</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A42" s="6" t="s">
         <v>34</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A45" s="6" t="s">
         <v>712</v>
       </c>
@@ -6465,17 +6465,17 @@
         <v>715</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="2" customFormat="1">
       <c r="B46" s="24"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="22" customFormat="1">
       <c r="B47" s="17"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A48" s="6" t="s">
         <v>716</v>
       </c>
@@ -6508,7 +6508,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6525,33 +6524,33 @@
       <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="22" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="1"/>
-    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="1"/>
+    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="1"/>
-    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="1"/>
+    <col min="19" max="19" width="11.5" style="1"/>
+    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="1"/>
+    <col min="25" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6587,7 +6586,7 @@
       <c r="Y1" s="51"/>
       <c r="Z1" s="51"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
@@ -6623,7 +6622,7 @@
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -6701,7 +6700,7 @@
       </c>
       <c r="Z3" s="34"/>
     </row>
-    <row r="4" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="28" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -6739,7 +6738,7 @@
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
     </row>
-    <row r="5" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="21" customFormat="1">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6779,7 +6778,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="27" customFormat="1">
       <c r="A6" s="41"/>
       <c r="B6" s="41" t="s">
         <v>22</v>
@@ -6827,7 +6826,7 @@
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
     </row>
-    <row r="7" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="27" customFormat="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
@@ -6865,7 +6864,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="21" customFormat="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6903,7 +6902,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="21" customFormat="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6941,7 +6940,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="21" customFormat="1">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -6979,7 +6978,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="21" customFormat="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -7017,7 +7016,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="28" customFormat="1">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -7055,7 +7054,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="27" customFormat="1">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -7093,7 +7092,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="21" customFormat="1">
       <c r="A14" s="38" t="b">
         <v>1</v>
       </c>
@@ -7131,7 +7130,7 @@
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
     </row>
-    <row r="15" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="21" customFormat="1">
       <c r="A15" s="41"/>
       <c r="B15" s="41" t="s">
         <v>22</v>
@@ -7179,7 +7178,7 @@
       <c r="Y15" s="41"/>
       <c r="Z15" s="41"/>
     </row>
-    <row r="16" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A16" s="44" t="b">
         <v>1</v>
       </c>
@@ -7217,7 +7216,7 @@
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
     </row>
-    <row r="17" spans="1:26" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="27" customFormat="1" ht="15">
       <c r="A17" s="45"/>
       <c r="B17" s="45" t="s">
         <v>22</v>
@@ -7265,7 +7264,7 @@
       <c r="Y17" s="41"/>
       <c r="Z17" s="41"/>
     </row>
-    <row r="18" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7303,7 +7302,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7341,7 +7340,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7379,7 +7378,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A21" s="44" t="b">
         <v>1</v>
       </c>
@@ -7417,7 +7416,7 @@
       <c r="Y21" s="38"/>
       <c r="Z21" s="38"/>
     </row>
-    <row r="22" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A22" s="45"/>
       <c r="B22" s="45" t="s">
         <v>22</v>
@@ -7469,7 +7468,7 @@
       <c r="Y22" s="41"/>
       <c r="Z22" s="41"/>
     </row>
-    <row r="23" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7507,7 +7506,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7545,7 +7544,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7583,7 +7582,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A26" s="44" t="b">
         <v>1</v>
       </c>
@@ -7621,7 +7620,7 @@
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
     </row>
-    <row r="27" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A27" s="45"/>
       <c r="B27" s="45" t="s">
         <v>22</v>
@@ -7669,7 +7668,7 @@
       <c r="Y27" s="41"/>
       <c r="Z27" s="41"/>
     </row>
-    <row r="28" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7707,7 +7706,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7747,7 +7746,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A30" s="44" t="b">
         <v>1</v>
       </c>
@@ -7785,7 +7784,7 @@
       <c r="Y30" s="38"/>
       <c r="Z30" s="38"/>
     </row>
-    <row r="31" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A31" s="45"/>
       <c r="B31" s="45" t="s">
         <v>22</v>
@@ -7833,7 +7832,7 @@
       <c r="Y31" s="41"/>
       <c r="Z31" s="41"/>
     </row>
-    <row r="32" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7871,7 +7870,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7911,7 +7910,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" s="27" customFormat="1">
       <c r="A34" s="38" t="b">
         <v>1</v>
       </c>
@@ -7949,7 +7948,7 @@
       <c r="Y34" s="38"/>
       <c r="Z34" s="38"/>
     </row>
-    <row r="35" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="21" customFormat="1">
       <c r="A35" s="41"/>
       <c r="B35" s="41" t="s">
         <v>22</v>
@@ -7999,7 +7998,7 @@
       <c r="Y35" s="41"/>
       <c r="Z35" s="41"/>
     </row>
-    <row r="36" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" s="21" customFormat="1">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
@@ -8039,7 +8038,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="21" customFormat="1">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -8077,7 +8076,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="28" customFormat="1">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -8115,7 +8114,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" s="27" customFormat="1" ht="15">
       <c r="A39" s="46" t="b">
         <v>1</v>
       </c>
@@ -8153,7 +8152,7 @@
       <c r="Y39" s="28"/>
       <c r="Z39" s="28"/>
     </row>
-    <row r="40" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A40" s="47"/>
       <c r="B40" s="47" t="s">
         <v>22</v>
@@ -8204,7 +8203,7 @@
       <c r="Y40" s="49"/>
       <c r="Z40" s="49"/>
     </row>
-    <row r="41" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A41" s="47"/>
       <c r="B41" s="47" t="s">
         <v>22</v>
@@ -8255,7 +8254,7 @@
       <c r="Y41" s="49"/>
       <c r="Z41" s="49"/>
     </row>
-    <row r="42" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -8278,7 +8277,7 @@
       <c r="J42" s="10"/>
       <c r="P42" s="22"/>
     </row>
-    <row r="43" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" s="28" customFormat="1">
       <c r="A43" s="28" t="b">
         <v>1</v>
       </c>
@@ -8295,7 +8294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" s="27" customFormat="1">
       <c r="A44" s="49"/>
       <c r="B44" s="49" t="s">
         <v>22</v>
@@ -8346,7 +8345,7 @@
       <c r="Y44" s="49"/>
       <c r="Z44" s="49"/>
     </row>
-    <row r="45" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" s="21" customFormat="1">
       <c r="A45" s="28" t="b">
         <v>1</v>
       </c>
@@ -8384,7 +8383,7 @@
       <c r="Y45" s="28"/>
       <c r="Z45" s="28"/>
     </row>
-    <row r="46" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" s="21" customFormat="1">
       <c r="A46" s="49"/>
       <c r="B46" s="49" t="s">
         <v>22</v>
@@ -8435,7 +8434,7 @@
       <c r="Y46" s="49"/>
       <c r="Z46" s="49"/>
     </row>
-    <row r="47" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A47" s="44" t="b">
         <v>1</v>
       </c>
@@ -8473,7 +8472,7 @@
       <c r="Y47" s="38"/>
       <c r="Z47" s="38"/>
     </row>
-    <row r="48" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -8513,7 +8512,7 @@
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
     </row>
-    <row r="49" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -8553,7 +8552,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8581,7 +8580,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" customFormat="1" ht="15">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8609,7 +8608,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" customFormat="1" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8637,7 +8636,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" customFormat="1" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8665,7 +8664,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" customFormat="1" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8693,7 +8692,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" customFormat="1" ht="15">
       <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8721,7 +8720,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8749,7 +8748,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" customFormat="1" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8777,7 +8776,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="15">
       <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -8805,7 +8804,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8833,7 +8832,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8861,7 +8860,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15">
       <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8889,7 +8888,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8917,7 +8916,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8945,7 +8944,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="15">
       <c r="A64" s="15"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -8973,7 +8972,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -9001,7 +9000,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -9029,7 +9028,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15">
       <c r="A67" s="15"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -9057,7 +9056,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -9085,7 +9084,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -9113,7 +9112,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -9141,7 +9140,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -9169,7 +9168,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -9197,7 +9196,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -9225,7 +9224,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -9253,7 +9252,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9281,7 +9280,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9309,7 +9308,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9337,7 +9336,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9365,7 +9364,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="15">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9393,7 +9392,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9421,7 +9420,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9449,7 +9448,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9477,7 +9476,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9505,7 +9504,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9533,7 +9532,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9561,7 +9560,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="15">
       <c r="A86" s="10"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -9589,7 +9588,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9617,7 +9616,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9645,7 +9644,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9673,7 +9672,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -9701,7 +9700,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9729,7 +9728,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9757,7 +9756,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9785,7 +9784,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9813,7 +9812,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9841,7 +9840,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9869,7 +9868,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9897,7 +9896,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9931,7 +9930,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9949,25 +9947,25 @@
       <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="22" customFormat="1" ht="18">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -9984,7 +9982,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
       <c r="A2" s="34" t="s">
         <v>460</v>
       </c>
@@ -10023,7 +10021,7 @@
       </c>
       <c r="M2" s="34"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
       <c r="A3" s="34" t="s">
         <v>621</v>
       </c>
@@ -10060,7 +10058,7 @@
       </c>
       <c r="M3" s="34"/>
     </row>
-    <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="22" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>627</v>
       </c>
@@ -10095,7 +10093,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="22" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>630</v>
       </c>
@@ -10132,7 +10130,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="22" customFormat="1">
       <c r="A6" s="15" t="s">
         <v>653</v>
       </c>
@@ -10161,7 +10159,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="22" customFormat="1">
       <c r="A7" s="15" t="s">
         <v>655</v>
       </c>
@@ -10190,7 +10188,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="22" customFormat="1">
       <c r="A8" s="15" t="s">
         <v>656</v>
       </c>
@@ -10219,7 +10217,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="22" customFormat="1">
       <c r="A9" s="15" t="s">
         <v>657</v>
       </c>
@@ -10248,7 +10246,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="22" customFormat="1">
       <c r="A10" s="15" t="s">
         <v>659</v>
       </c>
@@ -10277,7 +10275,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="22" customFormat="1">
       <c r="A11" s="15" t="s">
         <v>661</v>
       </c>
@@ -10306,7 +10304,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="22" customFormat="1">
       <c r="A12" s="15" t="s">
         <v>663</v>
       </c>
@@ -10335,7 +10333,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="22" customFormat="1">
       <c r="A13" s="15" t="s">
         <v>665</v>
       </c>
@@ -10364,7 +10362,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="22" customFormat="1">
       <c r="A14" s="15" t="s">
         <v>667</v>
       </c>
@@ -10393,7 +10391,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="21" customFormat="1">
       <c r="A15" s="15" t="s">
         <v>669</v>
       </c>
@@ -10422,7 +10420,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="21" customFormat="1">
       <c r="A16" s="15" t="s">
         <v>671</v>
       </c>
@@ -10451,7 +10449,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="21" customFormat="1">
       <c r="A17" s="15" t="s">
         <v>673</v>
       </c>
@@ -10480,7 +10478,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="21" customFormat="1">
       <c r="A18" s="15" t="s">
         <v>675</v>
       </c>
@@ -10509,7 +10507,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="21" customFormat="1">
       <c r="A19" s="15" t="s">
         <v>677</v>
       </c>
@@ -10538,7 +10536,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="21" customFormat="1">
       <c r="A20" s="15" t="s">
         <v>679</v>
       </c>
@@ -10567,7 +10565,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="22" customFormat="1">
       <c r="A21" s="15" t="s">
         <v>681</v>
       </c>
@@ -10596,7 +10594,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="22" customFormat="1">
       <c r="A22" s="15" t="s">
         <v>683</v>
       </c>
@@ -10625,7 +10623,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="22" customFormat="1">
       <c r="A23" s="15" t="s">
         <v>685</v>
       </c>
@@ -10654,7 +10652,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="22" customFormat="1">
       <c r="A24" s="15" t="s">
         <v>687</v>
       </c>
@@ -10683,7 +10681,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -10698,7 +10696,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -10713,7 +10711,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10728,7 +10726,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10743,207 +10741,206 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="B29" s="21"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="B30" s="21"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="B31" s="21"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="B32" s="21"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="21"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="21"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="21"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="21"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="21"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="21"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="21"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="21"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="21"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="21"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="21"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="21"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="21"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="21"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="21"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="21"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="21"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="21"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="21"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="21"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="21"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="21"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="21"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="21"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="21"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="21"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="21"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="21"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="21"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="21"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="21"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="21"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="21"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="21"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="21"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="21"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="21"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="21"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="21"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="21"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="21"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2">
       <c r="B74" s="21"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2">
       <c r="B75" s="21"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2">
       <c r="B76" s="21"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
       <c r="B77" s="21"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2">
       <c r="B78" s="21"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2">
       <c r="B79" s="21"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2">
       <c r="B80" s="21"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2">
       <c r="B81" s="21"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2">
       <c r="B82" s="21"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2">
       <c r="B83" s="21"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2">
       <c r="B84" s="21"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2">
       <c r="B85" s="21"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2">
       <c r="B86" s="21"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2">
       <c r="B87" s="21"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2">
       <c r="B88" s="21"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2">
       <c r="B89" s="21"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2">
       <c r="B90" s="21"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2">
       <c r="B91" s="21"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2">
       <c r="B92" s="21"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2">
       <c r="B93" s="21"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2">
       <c r="B94" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10960,19 +10957,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -10991,7 +10988,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -11012,7 +11009,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -11035,7 +11032,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -11058,7 +11055,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -11081,7 +11078,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -11104,7 +11101,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -11127,7 +11124,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -11150,7 +11147,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -11173,7 +11170,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11196,7 +11193,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11215,7 +11212,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11236,7 +11233,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11259,7 +11256,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11282,7 +11279,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11305,7 +11302,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11328,7 +11325,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11351,7 +11348,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11374,7 +11371,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11397,7 +11394,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11420,7 +11417,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11439,7 +11436,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11462,7 +11459,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11485,7 +11482,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11508,7 +11505,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11531,7 +11528,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11554,7 +11551,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11577,7 +11574,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11600,7 +11597,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11623,7 +11620,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11646,7 +11643,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11665,7 +11662,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11686,7 +11683,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11709,7 +11706,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11732,7 +11729,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11755,7 +11752,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11778,7 +11775,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11801,7 +11798,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11824,7 +11821,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11847,7 +11844,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11870,7 +11867,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11889,7 +11886,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11910,7 +11907,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11933,7 +11930,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11956,7 +11953,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -11979,7 +11976,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -12002,7 +11999,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -12025,7 +12022,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -12048,7 +12045,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -12071,7 +12068,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -12094,7 +12091,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -12113,7 +12110,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -12134,7 +12131,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -12157,7 +12154,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -12180,7 +12177,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12203,7 +12200,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12226,7 +12223,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12249,7 +12246,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12272,7 +12269,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12295,7 +12292,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12318,7 +12315,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12337,7 +12334,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12358,7 +12355,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12383,7 +12380,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12406,7 +12403,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12429,7 +12426,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12452,7 +12449,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12475,7 +12472,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12498,7 +12495,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12521,7 +12518,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12544,7 +12541,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12567,7 +12564,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12586,7 +12583,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12607,7 +12604,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12630,7 +12627,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12655,7 +12652,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12678,7 +12675,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12701,7 +12698,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12724,7 +12721,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12747,7 +12744,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12770,7 +12767,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12793,7 +12790,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12816,7 +12813,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12839,7 +12836,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12862,7 +12859,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12885,7 +12882,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12904,7 +12901,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12927,7 +12924,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12950,7 +12947,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -12973,7 +12970,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -12996,7 +12993,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -13019,7 +13016,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -13042,7 +13039,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -13065,7 +13062,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -13088,7 +13085,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -13111,7 +13108,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -13134,7 +13131,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -13153,7 +13150,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -13178,7 +13175,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13197,7 +13194,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13218,7 +13215,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13243,7 +13240,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13262,7 +13259,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13285,7 +13282,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13310,7 +13307,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13333,7 +13330,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13354,7 +13351,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13373,7 +13370,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13398,7 +13395,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13421,7 +13418,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13444,7 +13441,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13467,7 +13464,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13490,7 +13487,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13513,7 +13510,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13536,7 +13533,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13555,7 +13552,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13578,7 +13575,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13601,7 +13598,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13624,7 +13621,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13643,7 +13640,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13666,7 +13663,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13689,7 +13686,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13712,7 +13709,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13735,7 +13732,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13758,7 +13755,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13781,7 +13778,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13800,7 +13797,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13825,7 +13822,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13848,7 +13845,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13871,7 +13868,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13894,7 +13891,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13917,7 +13914,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13940,7 +13937,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -13963,7 +13960,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -13986,7 +13983,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -14009,7 +14006,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -14028,7 +14025,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -14053,7 +14050,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -14074,7 +14071,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -14097,7 +14094,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -14120,7 +14117,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -14143,7 +14140,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -14166,7 +14163,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14189,7 +14186,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14212,7 +14209,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14235,7 +14232,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14258,7 +14255,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14281,7 +14278,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14304,7 +14301,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14327,7 +14324,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14350,7 +14347,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14369,7 +14366,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14392,7 +14389,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14411,7 +14408,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14434,7 +14431,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14457,7 +14454,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14476,7 +14473,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14501,7 +14498,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14524,7 +14521,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14547,7 +14544,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14570,7 +14567,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14593,7 +14590,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14616,7 +14613,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14639,7 +14636,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14662,7 +14659,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14685,7 +14682,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14708,7 +14705,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14727,7 +14724,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14752,7 +14749,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14775,7 +14772,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14798,7 +14795,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14821,7 +14818,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14844,7 +14841,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14867,7 +14864,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14890,7 +14887,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14913,7 +14910,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14936,7 +14933,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14959,7 +14956,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -14978,7 +14975,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -15001,7 +14998,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -15024,7 +15021,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -15047,7 +15044,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -15070,7 +15067,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -15089,7 +15086,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -15112,7 +15109,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -15135,7 +15132,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -15158,7 +15155,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -15181,7 +15178,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15200,7 +15197,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15221,7 +15218,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15244,7 +15241,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15263,7 +15260,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15286,7 +15283,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15311,7 +15308,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15332,7 +15329,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15357,7 +15354,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15382,7 +15379,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15401,7 +15398,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15426,7 +15423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15449,7 +15446,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15472,7 +15469,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15495,7 +15492,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15518,7 +15515,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15541,7 +15538,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15564,7 +15561,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15587,7 +15584,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15610,7 +15607,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15629,7 +15626,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15654,7 +15651,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15677,7 +15674,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15700,7 +15697,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15723,7 +15720,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15746,7 +15743,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15769,7 +15766,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15792,7 +15789,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15815,7 +15812,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15838,7 +15835,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15857,7 +15854,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15878,7 +15875,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15901,7 +15898,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15924,7 +15921,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15947,7 +15944,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -15970,7 +15967,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -15993,7 +15990,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -16016,7 +16013,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -16039,7 +16036,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -16062,7 +16059,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -16085,7 +16082,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -16108,7 +16105,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -16131,7 +16128,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -16154,7 +16151,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -16177,7 +16174,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16200,7 +16197,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16223,7 +16220,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16242,7 +16239,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16263,7 +16260,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16286,7 +16283,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16309,7 +16306,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16332,7 +16329,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16355,7 +16352,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16378,7 +16375,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16401,7 +16398,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16424,7 +16421,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16447,7 +16444,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16470,7 +16467,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16493,7 +16490,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16516,7 +16513,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16539,7 +16536,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16562,7 +16559,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16585,7 +16582,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16608,7 +16605,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16627,7 +16624,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16652,7 +16649,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16675,7 +16672,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16698,7 +16695,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16721,7 +16718,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16744,7 +16741,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16763,7 +16760,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16788,7 +16785,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16811,7 +16808,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16830,7 +16827,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16849,7 +16846,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16868,7 +16865,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16889,7 +16886,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16912,7 +16909,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16935,7 +16932,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16958,7 +16955,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -16981,7 +16978,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -17004,7 +17001,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -17027,7 +17024,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -17050,7 +17047,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -17073,7 +17070,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -17096,7 +17093,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -17119,7 +17116,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -17138,7 +17135,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -17161,7 +17158,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -17180,7 +17177,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17205,7 +17202,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17228,7 +17225,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17251,7 +17248,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17274,7 +17271,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17297,7 +17294,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17320,7 +17317,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17343,7 +17340,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17366,7 +17363,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17389,7 +17386,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17412,7 +17409,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17435,7 +17432,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17454,7 +17451,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17477,7 +17474,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17496,7 +17493,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17517,7 +17514,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17536,7 +17533,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17557,7 +17554,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17576,7 +17573,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17597,7 +17594,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17616,7 +17613,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17639,7 +17636,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17658,7 +17655,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17683,7 +17680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17706,7 +17703,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17729,7 +17726,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17752,7 +17749,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17775,7 +17772,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17798,7 +17795,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17821,7 +17818,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17844,7 +17841,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17867,7 +17864,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17886,7 +17883,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17909,7 +17906,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17932,7 +17929,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17955,7 +17952,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -17978,7 +17975,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -17997,7 +17994,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -18020,7 +18017,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -18043,7 +18040,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -18068,7 +18065,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -18087,7 +18084,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -18112,7 +18109,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -18135,7 +18132,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -18154,7 +18151,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -18175,7 +18172,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18196,7 +18193,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18219,7 +18216,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18238,7 +18235,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18257,7 +18254,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18282,7 +18279,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18307,7 +18304,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18321,7 +18318,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18344,7 +18341,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18364,7 +18361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18384,7 +18381,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18404,7 +18401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18421,7 +18418,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18444,7 +18441,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18467,7 +18464,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18481,7 +18478,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18504,7 +18501,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18527,7 +18524,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18547,7 +18544,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18567,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18584,7 +18581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18610,7 +18607,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18639,7 +18636,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18678,7 +18675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18692,7 +18689,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18712,7 +18709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18726,7 +18723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18746,7 +18743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18766,7 +18763,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18786,7 +18783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18806,7 +18803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18826,7 +18823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18846,7 +18843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18866,7 +18863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18886,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18906,7 +18903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18920,7 +18917,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18940,7 +18937,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18960,7 +18957,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18976,7 +18973,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19002,7 +18999,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19043,7 +19040,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19057,7 +19054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19077,7 +19074,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19091,7 +19088,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19113,7 +19110,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19130,17 +19126,17 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>440</v>
       </c>
@@ -19157,7 +19153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="21" customFormat="1">
       <c r="A2" s="21" t="s">
         <v>636</v>
       </c>
@@ -19174,7 +19170,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="21" customFormat="1">
       <c r="A3" s="21" t="s">
         <v>588</v>
       </c>
@@ -19191,7 +19187,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="21" customFormat="1">
       <c r="A4" s="21" t="s">
         <v>590</v>
       </c>
@@ -19208,7 +19204,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="21" customFormat="1">
       <c r="A5" s="21" t="s">
         <v>592</v>
       </c>
@@ -19225,7 +19221,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="21" customFormat="1">
       <c r="A6" s="21" t="s">
         <v>594</v>
       </c>
@@ -19242,7 +19238,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="21" customFormat="1">
       <c r="A7" s="21" t="s">
         <v>596</v>
       </c>
@@ -19259,7 +19255,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="21" customFormat="1">
       <c r="A8" s="21" t="s">
         <v>439</v>
       </c>
@@ -19276,7 +19272,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="21" customFormat="1">
       <c r="A9" s="21" t="s">
         <v>599</v>
       </c>
@@ -19293,7 +19289,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="21" t="s">
         <v>601</v>
       </c>
@@ -19310,9 +19306,9 @@
         <v>711</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="21" customFormat="1"/>
+    <row r="12" spans="1:7" s="21" customFormat="1"/>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>568</v>
       </c>
@@ -19326,7 +19322,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>455</v>
       </c>
@@ -19340,7 +19336,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>453</v>
       </c>
@@ -19351,8 +19347,8 @@
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="21" customFormat="1"/>
+    <row r="18" spans="1:35">
       <c r="A18" t="s">
         <v>547</v>
       </c>
@@ -19396,7 +19392,7 @@
       <c r="AH18" s="21"/>
       <c r="AI18" s="21"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35">
       <c r="A19" t="s">
         <v>548</v>
       </c>
@@ -19473,7 +19469,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35">
       <c r="A20" s="21" t="s">
         <v>749</v>
       </c>
@@ -19541,7 +19537,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -19580,7 +19576,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35">
       <c r="A22" t="s">
         <v>541</v>
       </c>
@@ -19621,7 +19617,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35">
       <c r="A23" t="s">
         <v>550</v>
       </c>
@@ -19653,7 +19649,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35">
       <c r="A24" t="s">
         <v>549</v>
       </c>
@@ -19688,7 +19684,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35">
       <c r="A25" t="s">
         <v>551</v>
       </c>
@@ -19723,7 +19719,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35">
       <c r="A26" t="s">
         <v>728</v>
       </c>
@@ -19746,7 +19742,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35">
       <c r="A27" t="s">
         <v>723</v>
       </c>
@@ -19772,7 +19768,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35">
       <c r="A28" t="s">
         <v>724</v>
       </c>
@@ -19798,7 +19794,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35">
       <c r="A29" s="21" t="s">
         <v>741</v>
       </c>
@@ -19812,7 +19808,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35">
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -19826,7 +19822,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35">
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -19840,7 +19836,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35">
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -19856,7 +19852,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
